--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -305,7 +305,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +347,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,35 +665,36 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G7" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,20 +710,23 @@
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>3100</v>
+        <v>1100</v>
       </c>
       <c r="E8" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F8" s="3">
         <v>700</v>
       </c>
-      <c r="F8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G8" s="3" t="s">
         <v>3</v>
       </c>
@@ -738,8 +742,11 @@
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -767,8 +774,11 @@
       <c r="K9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -796,8 +806,11 @@
       <c r="K10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -809,19 +822,20 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>9000</v>
+        <v>19300</v>
       </c>
       <c r="E12" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>3</v>
+        <v>9300</v>
+      </c>
+      <c r="F12" s="3">
+        <v>7400</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>3</v>
@@ -838,8 +852,11 @@
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -867,8 +884,11 @@
       <c r="K13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -896,8 +916,11 @@
       <c r="K14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -925,8 +948,11 @@
       <c r="K15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="L15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -935,19 +961,20 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10100</v>
+        <v>21000</v>
       </c>
       <c r="E17" s="3">
-        <v>8700</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>3</v>
+        <v>10600</v>
+      </c>
+      <c r="F17" s="3">
+        <v>9000</v>
       </c>
       <c r="G17" s="3" t="s">
         <v>3</v>
@@ -964,19 +991,22 @@
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7100</v>
+        <v>-19900</v>
       </c>
       <c r="E18" s="3">
-        <v>-8000</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>3</v>
+        <v>-7400</v>
+      </c>
+      <c r="F18" s="3">
+        <v>-8300</v>
       </c>
       <c r="G18" s="3" t="s">
         <v>3</v>
@@ -993,8 +1023,11 @@
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1006,20 +1039,21 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-200</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1035,19 +1069,22 @@
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-7200</v>
-      </c>
-      <c r="E21" s="3">
-        <v>-8200</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="3">
+        <v>-8500</v>
       </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
@@ -1064,20 +1101,23 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>200</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1093,19 +1133,22 @@
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-7500</v>
+        <v>-20300</v>
       </c>
       <c r="E23" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>3</v>
+        <v>-7800</v>
+      </c>
+      <c r="F23" s="3">
+        <v>-8800</v>
       </c>
       <c r="G23" s="3" t="s">
         <v>3</v>
@@ -1122,8 +1165,11 @@
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1133,8 +1179,8 @@
       <c r="E24" s="3">
         <v>0</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>3</v>
+      <c r="F24" s="3">
+        <v>0</v>
       </c>
       <c r="G24" s="3" t="s">
         <v>3</v>
@@ -1151,8 +1197,11 @@
       <c r="K24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1180,19 +1229,22 @@
       <c r="K25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-7600</v>
+        <v>-20300</v>
       </c>
       <c r="E26" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>3</v>
+        <v>-7900</v>
+      </c>
+      <c r="F26" s="3">
+        <v>-8800</v>
       </c>
       <c r="G26" s="3" t="s">
         <v>3</v>
@@ -1209,19 +1261,22 @@
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-7600</v>
+        <v>-20300</v>
       </c>
       <c r="E27" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F27" s="3" t="s">
-        <v>3</v>
+        <v>-7900</v>
+      </c>
+      <c r="F27" s="3">
+        <v>-8800</v>
       </c>
       <c r="G27" s="3" t="s">
         <v>3</v>
@@ -1238,8 +1293,11 @@
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1267,8 +1325,11 @@
       <c r="K28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1296,8 +1357,11 @@
       <c r="K29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1325,8 +1389,11 @@
       <c r="K30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1354,20 +1421,23 @@
       <c r="K31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>400</v>
+      </c>
+      <c r="E32" s="3">
         <v>200</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1383,19 +1453,22 @@
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-7600</v>
+        <v>-20300</v>
       </c>
       <c r="E33" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F33" s="3" t="s">
-        <v>3</v>
+        <v>-7900</v>
+      </c>
+      <c r="F33" s="3">
+        <v>-8800</v>
       </c>
       <c r="G33" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1485,11 @@
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1441,19 +1517,22 @@
       <c r="K34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-7600</v>
+        <v>-20300</v>
       </c>
       <c r="E35" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F35" s="3" t="s">
-        <v>3</v>
+        <v>-7900</v>
+      </c>
+      <c r="F35" s="3">
+        <v>-8800</v>
       </c>
       <c r="G35" s="3" t="s">
         <v>3</v>
@@ -1470,25 +1549,28 @@
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1504,8 +1586,11 @@
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1517,8 +1602,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1530,19 +1616,20 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>14000</v>
+        <v>165100</v>
       </c>
       <c r="E41" s="3">
-        <v>9800</v>
-      </c>
-      <c r="F41" s="3" t="s">
-        <v>3</v>
+        <v>14600</v>
+      </c>
+      <c r="F41" s="3">
+        <v>10200</v>
       </c>
       <c r="G41" s="3" t="s">
         <v>3</v>
@@ -1559,17 +1646,20 @@
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>1200</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1588,20 +1678,23 @@
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
-        <v>1400</v>
+      <c r="D43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F43" s="3">
         <v>300</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,8 +1710,11 @@
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1646,20 +1742,23 @@
       <c r="K44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E45" s="3">
         <v>900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>100</v>
       </c>
-      <c r="F45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1675,19 +1774,22 @@
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>17500</v>
+        <v>166300</v>
       </c>
       <c r="E46" s="3">
-        <v>10200</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>3</v>
+        <v>18200</v>
+      </c>
+      <c r="F46" s="3">
+        <v>10600</v>
       </c>
       <c r="G46" s="3" t="s">
         <v>3</v>
@@ -1704,8 +1806,11 @@
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1733,20 +1838,23 @@
       <c r="K47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
+        <v>1500</v>
+      </c>
+      <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="E48" s="3">
-        <v>1300</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1762,8 +1870,11 @@
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1791,8 +1902,11 @@
       <c r="K49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1820,8 +1934,11 @@
       <c r="K50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1849,19 +1966,22 @@
       <c r="K51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>700</v>
+        <v>2300</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="F52" s="3">
+        <v>0</v>
       </c>
       <c r="G52" s="3" t="s">
         <v>3</v>
@@ -1878,8 +1998,11 @@
       <c r="K52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1907,19 +2030,22 @@
       <c r="K53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>19600</v>
+        <v>168600</v>
       </c>
       <c r="E54" s="3">
-        <v>11500</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>3</v>
+        <v>20400</v>
+      </c>
+      <c r="F54" s="3">
+        <v>12000</v>
       </c>
       <c r="G54" s="3" t="s">
         <v>3</v>
@@ -1936,8 +2062,11 @@
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1949,8 +2078,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1962,19 +2092,20 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1800</v>
+      </c>
+      <c r="E57" s="3">
         <v>900</v>
       </c>
-      <c r="E57" s="3">
-        <v>1500</v>
-      </c>
-      <c r="F57" s="3" t="s">
-        <v>3</v>
+      <c r="F57" s="3">
+        <v>1600</v>
       </c>
       <c r="G57" s="3" t="s">
         <v>3</v>
@@ -1991,19 +2122,22 @@
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
-        <v>200</v>
+      <c r="D58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E58" s="3">
         <v>200</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>200</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2020,19 +2154,22 @@
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5800</v>
+        <v>3800</v>
       </c>
       <c r="E59" s="3">
-        <v>5400</v>
-      </c>
-      <c r="F59" s="3" t="s">
-        <v>3</v>
+        <v>6000</v>
+      </c>
+      <c r="F59" s="3">
+        <v>5600</v>
       </c>
       <c r="G59" s="3" t="s">
         <v>3</v>
@@ -2049,19 +2186,22 @@
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>6900</v>
+        <v>5600</v>
       </c>
       <c r="E60" s="3">
-        <v>7100</v>
-      </c>
-      <c r="F60" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>7400</v>
       </c>
       <c r="G60" s="3" t="s">
         <v>3</v>
@@ -2078,19 +2218,22 @@
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>3700</v>
+        <v>4200</v>
       </c>
       <c r="E61" s="3">
-        <v>2600</v>
+        <v>3900</v>
       </c>
       <c r="F61" s="3">
-        <v>0</v>
+        <v>2700</v>
       </c>
       <c r="G61" s="3">
         <v>0</v>
@@ -2107,19 +2250,22 @@
       <c r="K61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>1700</v>
+        <v>19800</v>
       </c>
       <c r="E62" s="3">
-        <v>3800</v>
-      </c>
-      <c r="F62" s="3" t="s">
-        <v>3</v>
+        <v>1800</v>
+      </c>
+      <c r="F62" s="3">
+        <v>4000</v>
       </c>
       <c r="G62" s="3" t="s">
         <v>3</v>
@@ -2136,8 +2282,11 @@
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2165,8 +2314,11 @@
       <c r="K63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2194,8 +2346,11 @@
       <c r="K64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2223,19 +2378,22 @@
       <c r="K65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>12300</v>
+        <v>29600</v>
       </c>
       <c r="E66" s="3">
-        <v>13500</v>
-      </c>
-      <c r="F66" s="3" t="s">
-        <v>3</v>
+        <v>12800</v>
+      </c>
+      <c r="F66" s="3">
+        <v>14100</v>
       </c>
       <c r="G66" s="3" t="s">
         <v>3</v>
@@ -2252,8 +2410,11 @@
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2265,8 +2426,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2294,8 +2456,11 @@
       <c r="K68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2323,8 +2488,11 @@
       <c r="K69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2352,8 +2520,11 @@
       <c r="K70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2381,19 +2552,22 @@
       <c r="K71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
-        <v>-33700</v>
+      <c r="D72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E72" s="3">
-        <v>-22100</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
+        <v>-35000</v>
+      </c>
+      <c r="F72" s="3">
+        <v>-23000</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
@@ -2410,8 +2584,11 @@
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2439,8 +2616,11 @@
       <c r="K73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2468,8 +2648,11 @@
       <c r="K74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2497,19 +2680,22 @@
       <c r="K75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>7300</v>
+        <v>139000</v>
       </c>
       <c r="E76" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="F76" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="F76" s="3">
+        <v>-2100</v>
       </c>
       <c r="G76" s="3" t="s">
         <v>3</v>
@@ -2526,8 +2712,11 @@
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2555,25 +2744,28 @@
       <c r="K77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="L77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="G80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2589,19 +2781,22 @@
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-7600</v>
+        <v>-20300</v>
       </c>
       <c r="E81" s="3">
-        <v>-8400</v>
-      </c>
-      <c r="F81" s="3" t="s">
-        <v>3</v>
+        <v>-7900</v>
+      </c>
+      <c r="F81" s="3">
+        <v>-8800</v>
       </c>
       <c r="G81" s="3" t="s">
         <v>3</v>
@@ -2618,8 +2813,11 @@
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2631,37 +2829,41 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E83" s="3">
-        <v>100</v>
-      </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F83" s="3">
+        <v>0</v>
+      </c>
+      <c r="G83" s="3">
+        <v>0</v>
+      </c>
+      <c r="H83" s="3">
+        <v>0</v>
+      </c>
+      <c r="I83" s="3">
+        <v>0</v>
+      </c>
+      <c r="J83" s="3">
+        <v>0</v>
       </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2689,8 +2891,11 @@
       <c r="K84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2718,8 +2923,11 @@
       <c r="K85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2747,8 +2955,11 @@
       <c r="K86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2776,8 +2987,11 @@
       <c r="K87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2805,37 +3019,43 @@
       <c r="K88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-11600</v>
+        <v>0</v>
       </c>
       <c r="E89" s="3">
-        <v>1700</v>
-      </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F89" s="3">
+        <v>0</v>
+      </c>
+      <c r="G89" s="3">
+        <v>0</v>
+      </c>
+      <c r="H89" s="3">
+        <v>0</v>
+      </c>
+      <c r="I89" s="3">
+        <v>0</v>
+      </c>
+      <c r="J89" s="3">
+        <v>0</v>
       </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2847,37 +3067,41 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2905,8 +3129,11 @@
       <c r="K92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2934,37 +3161,43 @@
       <c r="K93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>-300</v>
+        <v>0</v>
       </c>
       <c r="E94" s="3">
-        <v>-200</v>
-      </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F94" s="3">
+        <v>0</v>
+      </c>
+      <c r="G94" s="3">
+        <v>0</v>
+      </c>
+      <c r="H94" s="3">
+        <v>0</v>
+      </c>
+      <c r="I94" s="3">
+        <v>0</v>
+      </c>
+      <c r="J94" s="3">
+        <v>0</v>
       </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2976,8 +3209,9 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3005,8 +3239,11 @@
       <c r="K96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3034,8 +3271,11 @@
       <c r="K97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3063,8 +3303,11 @@
       <c r="K98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3092,91 +3335,103 @@
       <c r="K99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>18000</v>
+        <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>900</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
+        <v>0</v>
+      </c>
+      <c r="J100" s="3">
+        <v>0</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>-600</v>
+        <v>0</v>
       </c>
       <c r="E101" s="3">
-        <v>-300</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
+        <v>0</v>
+      </c>
+      <c r="G101" s="3">
+        <v>0</v>
+      </c>
+      <c r="H101" s="3">
+        <v>0</v>
+      </c>
+      <c r="I101" s="3">
+        <v>0</v>
+      </c>
+      <c r="J101" s="3">
+        <v>0</v>
       </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+      <c r="L101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>5300</v>
+        <v>0</v>
       </c>
       <c r="E102" s="3">
-        <v>2100</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="F102" s="3">
+        <v>0</v>
+      </c>
+      <c r="G102" s="3">
+        <v>0</v>
+      </c>
+      <c r="H102" s="3">
+        <v>0</v>
+      </c>
+      <c r="I102" s="3">
+        <v>0</v>
+      </c>
+      <c r="J102" s="3">
+        <v>0</v>
       </c>
       <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:L102"/>
+  <dimension ref="A5:M102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,39 +665,40 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="12" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -713,8 +714,11 @@
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -722,14 +726,14 @@
         <v>1100</v>
       </c>
       <c r="E8" s="3">
-        <v>3200</v>
+        <v>1100</v>
       </c>
       <c r="F8" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G8" s="3">
         <v>700</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -745,8 +749,11 @@
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -777,8 +784,11 @@
       <c r="L9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,8 +819,11 @@
       <c r="L10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,22 +836,23 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M11" s="3"/>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>19300</v>
+        <v>5300</v>
       </c>
       <c r="E12" s="3">
-        <v>9300</v>
+        <v>18400</v>
       </c>
       <c r="F12" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>3</v>
+        <v>8900</v>
+      </c>
+      <c r="G12" s="3">
+        <v>7000</v>
       </c>
       <c r="H12" s="3" t="s">
         <v>3</v>
@@ -855,8 +869,11 @@
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -887,8 +904,11 @@
       <c r="L13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -919,8 +939,11 @@
       <c r="L14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -951,8 +974,11 @@
       <c r="L15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="M15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -962,22 +988,23 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
-    </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M16" s="3"/>
+    </row>
+    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>21000</v>
+        <v>7400</v>
       </c>
       <c r="E17" s="3">
-        <v>10600</v>
+        <v>20000</v>
       </c>
       <c r="F17" s="3">
-        <v>9000</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
+        <v>10100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>8600</v>
       </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
@@ -994,22 +1021,25 @@
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-19900</v>
+        <v>-6400</v>
       </c>
       <c r="E18" s="3">
-        <v>-7400</v>
+        <v>-19000</v>
       </c>
       <c r="F18" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="G18" s="3">
+        <v>-7900</v>
       </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
@@ -1026,8 +1056,11 @@
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1040,23 +1073,24 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M19" s="3"/>
+    </row>
+    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-400</v>
+        <v>-300</v>
       </c>
       <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-200</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-300</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1072,8 +1106,11 @@
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1084,10 +1121,10 @@
         <v>3</v>
       </c>
       <c r="F21" s="3">
-        <v>-8500</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
+        <v>-7000</v>
+      </c>
+      <c r="G21" s="3">
+        <v>-8100</v>
       </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
@@ -1104,23 +1141,26 @@
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1136,22 +1176,25 @@
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-20300</v>
+        <v>-6700</v>
       </c>
       <c r="E23" s="3">
-        <v>-7800</v>
+        <v>-19300</v>
       </c>
       <c r="F23" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="G23" s="3">
+        <v>-8300</v>
       </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
@@ -1168,8 +1211,11 @@
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1182,8 +1228,8 @@
       <c r="F24" s="3">
         <v>0</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>0</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1200,8 +1246,11 @@
       <c r="L24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1232,22 +1281,25 @@
       <c r="L25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-20300</v>
+        <v>-6800</v>
       </c>
       <c r="E26" s="3">
-        <v>-7900</v>
+        <v>-19300</v>
       </c>
       <c r="F26" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="G26" s="3">
+        <v>-8300</v>
       </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
@@ -1264,22 +1316,25 @@
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-20300</v>
+        <v>-6800</v>
       </c>
       <c r="E27" s="3">
-        <v>-7900</v>
+        <v>-19300</v>
       </c>
       <c r="F27" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="G27" s="3">
+        <v>-8300</v>
       </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
@@ -1296,8 +1351,11 @@
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1328,8 +1386,11 @@
       <c r="L28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1360,8 +1421,11 @@
       <c r="L29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1392,8 +1456,11 @@
       <c r="L30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1424,23 +1491,26 @@
       <c r="L31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>400</v>
+        <v>300</v>
       </c>
       <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>200</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>300</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1456,22 +1526,25 @@
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-20300</v>
+        <v>-6800</v>
       </c>
       <c r="E33" s="3">
-        <v>-7900</v>
+        <v>-19300</v>
       </c>
       <c r="F33" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="G33" s="3">
+        <v>-8300</v>
       </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
@@ -1488,8 +1561,11 @@
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1520,22 +1596,25 @@
       <c r="L34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-20300</v>
+        <v>-6800</v>
       </c>
       <c r="E35" s="3">
-        <v>-7900</v>
+        <v>-19300</v>
       </c>
       <c r="F35" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="G35" s="3">
+        <v>-8300</v>
       </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
@@ -1552,28 +1631,31 @@
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1589,8 +1671,11 @@
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1603,8 +1688,9 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1617,22 +1703,23 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
-    </row>
-    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>165100</v>
+        <v>149800</v>
       </c>
       <c r="E41" s="3">
-        <v>14600</v>
+        <v>157300</v>
       </c>
       <c r="F41" s="3">
-        <v>10200</v>
-      </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
+        <v>13900</v>
+      </c>
+      <c r="G41" s="3">
+        <v>9700</v>
       </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
@@ -1649,20 +1736,23 @@
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F42" s="3">
         <v>1200</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1681,23 +1771,26 @@
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E43" s="3">
-        <v>1500</v>
+      <c r="E43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="G43" s="3">
         <v>300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1713,8 +1806,11 @@
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1745,23 +1841,26 @@
       <c r="L44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>100</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1777,22 +1876,25 @@
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>166300</v>
+        <v>155400</v>
       </c>
       <c r="E46" s="3">
-        <v>18200</v>
+        <v>158500</v>
       </c>
       <c r="F46" s="3">
-        <v>10600</v>
-      </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
+        <v>17300</v>
+      </c>
+      <c r="G46" s="3">
+        <v>10100</v>
       </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
@@ -1809,8 +1911,11 @@
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1841,22 +1946,25 @@
       <c r="L47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="3">
-        <v>1500</v>
+      <c r="E48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
+      <c r="G48" s="3">
+        <v>1300</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
@@ -1873,8 +1981,11 @@
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1905,8 +2016,11 @@
       <c r="L49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1937,8 +2051,11 @@
       <c r="L50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1969,22 +2086,25 @@
       <c r="L51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2300</v>
+        <v>2100</v>
       </c>
       <c r="E52" s="3">
-        <v>800</v>
+        <v>2200</v>
       </c>
       <c r="F52" s="3">
-        <v>0</v>
-      </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
+        <v>700</v>
+      </c>
+      <c r="G52" s="3">
+        <v>0</v>
       </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
@@ -2001,8 +2121,11 @@
       <c r="L52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2033,22 +2156,25 @@
       <c r="L53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>168600</v>
+        <v>157500</v>
       </c>
       <c r="E54" s="3">
-        <v>20400</v>
+        <v>160700</v>
       </c>
       <c r="F54" s="3">
-        <v>12000</v>
-      </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
+        <v>19500</v>
+      </c>
+      <c r="G54" s="3">
+        <v>11400</v>
       </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
@@ -2065,8 +2191,11 @@
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2079,8 +2208,9 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
-    </row>
-    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M55" s="3"/>
+    </row>
+    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2093,22 +2223,23 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
-    </row>
-    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M56" s="3"/>
+    </row>
+    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1800</v>
+        <v>2100</v>
       </c>
       <c r="E57" s="3">
+        <v>1700</v>
+      </c>
+      <c r="F57" s="3">
         <v>900</v>
       </c>
-      <c r="F57" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
+      <c r="G57" s="3">
+        <v>1500</v>
       </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
@@ -2125,22 +2256,25 @@
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E58" s="3">
-        <v>200</v>
+      <c r="E58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F58" s="3">
         <v>200</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>200</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2157,22 +2291,25 @@
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3800</v>
+        <v>1900</v>
       </c>
       <c r="E59" s="3">
-        <v>6000</v>
+        <v>3600</v>
       </c>
       <c r="F59" s="3">
-        <v>5600</v>
-      </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
+        <v>5700</v>
+      </c>
+      <c r="G59" s="3">
+        <v>5300</v>
       </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
@@ -2189,22 +2326,25 @@
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5600</v>
+        <v>4000</v>
       </c>
       <c r="E60" s="3">
-        <v>7200</v>
+        <v>5400</v>
       </c>
       <c r="F60" s="3">
-        <v>7400</v>
-      </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
+        <v>6800</v>
+      </c>
+      <c r="G60" s="3">
+        <v>7000</v>
       </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
@@ -2221,8 +2361,11 @@
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2230,13 +2373,13 @@
         <v>4200</v>
       </c>
       <c r="E61" s="3">
-        <v>3900</v>
+        <v>4000</v>
       </c>
       <c r="F61" s="3">
-        <v>2700</v>
+        <v>3700</v>
       </c>
       <c r="G61" s="3">
-        <v>0</v>
+        <v>2600</v>
       </c>
       <c r="H61" s="3">
         <v>0</v>
@@ -2253,22 +2396,25 @@
       <c r="L61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>19800</v>
+        <v>14300</v>
       </c>
       <c r="E62" s="3">
-        <v>1800</v>
+        <v>18900</v>
       </c>
       <c r="F62" s="3">
-        <v>4000</v>
-      </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="G62" s="3">
+        <v>3800</v>
       </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
@@ -2285,8 +2431,11 @@
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2317,8 +2466,11 @@
       <c r="L63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2349,8 +2501,11 @@
       <c r="L64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2381,22 +2536,25 @@
       <c r="L65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>29600</v>
+        <v>22600</v>
       </c>
       <c r="E66" s="3">
-        <v>12800</v>
+        <v>28200</v>
       </c>
       <c r="F66" s="3">
-        <v>14100</v>
-      </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
+        <v>12200</v>
+      </c>
+      <c r="G66" s="3">
+        <v>13400</v>
       </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
@@ -2413,8 +2571,11 @@
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2427,8 +2588,9 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
-    </row>
-    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M67" s="3"/>
+    </row>
+    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2459,8 +2621,11 @@
       <c r="L68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2491,8 +2656,11 @@
       <c r="L69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2523,8 +2691,11 @@
       <c r="L70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2555,22 +2726,25 @@
       <c r="L71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E72" s="3">
-        <v>-35000</v>
+      <c r="E72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="F72" s="3">
-        <v>-23000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
+        <v>-33400</v>
+      </c>
+      <c r="G72" s="3">
+        <v>-21900</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
@@ -2587,8 +2761,11 @@
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2619,8 +2796,11 @@
       <c r="L73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2651,8 +2831,11 @@
       <c r="L74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2683,22 +2866,25 @@
       <c r="L75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>139000</v>
+        <v>134900</v>
       </c>
       <c r="E76" s="3">
-        <v>7600</v>
+        <v>132500</v>
       </c>
       <c r="F76" s="3">
-        <v>-2100</v>
-      </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
+        <v>7200</v>
+      </c>
+      <c r="G76" s="3">
+        <v>-2000</v>
       </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
@@ -2715,8 +2901,11 @@
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2747,28 +2936,31 @@
       <c r="L77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
+      <c r="M77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2784,22 +2976,25 @@
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-20300</v>
+        <v>-6800</v>
       </c>
       <c r="E81" s="3">
-        <v>-7900</v>
+        <v>-19300</v>
       </c>
       <c r="F81" s="3">
-        <v>-8800</v>
-      </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
+        <v>-7500</v>
+      </c>
+      <c r="G81" s="3">
+        <v>-8300</v>
       </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
@@ -2816,8 +3011,11 @@
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2830,8 +3028,9 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
-    </row>
-    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M82" s="3"/>
+    </row>
+    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2856,14 +3055,17 @@
       <c r="J83" s="3">
         <v>0</v>
       </c>
-      <c r="K83" s="3" t="s">
-        <v>3</v>
+      <c r="K83" s="3">
+        <v>0</v>
       </c>
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2894,8 +3096,11 @@
       <c r="L84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2926,8 +3131,11 @@
       <c r="L85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2958,8 +3166,11 @@
       <c r="L86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2990,8 +3201,11 @@
       <c r="L87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3022,8 +3236,11 @@
       <c r="L88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3048,14 +3265,17 @@
       <c r="J89" s="3">
         <v>0</v>
       </c>
-      <c r="K89" s="3" t="s">
-        <v>3</v>
+      <c r="K89" s="3">
+        <v>0</v>
       </c>
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3068,8 +3288,9 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
-    </row>
-    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M90" s="3"/>
+    </row>
+    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3094,14 +3315,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
+      <c r="K91" s="3">
+        <v>0</v>
       </c>
       <c r="L91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3132,8 +3356,11 @@
       <c r="L92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3164,8 +3391,11 @@
       <c r="L93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3190,14 +3420,17 @@
       <c r="J94" s="3">
         <v>0</v>
       </c>
-      <c r="K94" s="3" t="s">
-        <v>3</v>
+      <c r="K94" s="3">
+        <v>0</v>
       </c>
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3210,8 +3443,9 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
-    </row>
-    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M95" s="3"/>
+    </row>
+    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3242,8 +3476,11 @@
       <c r="L96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3274,8 +3511,11 @@
       <c r="L97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3306,8 +3546,11 @@
       <c r="L98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3338,8 +3581,11 @@
       <c r="L99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3364,14 +3610,17 @@
       <c r="J100" s="3">
         <v>0</v>
       </c>
-      <c r="K100" s="3" t="s">
-        <v>3</v>
+      <c r="K100" s="3">
+        <v>0</v>
       </c>
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3396,14 +3645,17 @@
       <c r="J101" s="3">
         <v>0</v>
       </c>
-      <c r="K101" s="3" t="s">
-        <v>3</v>
+      <c r="K101" s="3">
+        <v>0</v>
       </c>
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3428,10 +3680,13 @@
       <c r="J102" s="3">
         <v>0</v>
       </c>
-      <c r="K102" s="3" t="s">
-        <v>3</v>
+      <c r="K102" s="3">
+        <v>0</v>
       </c>
       <c r="L102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:M102"/>
+  <dimension ref="A5:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,43 +665,44 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="13" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I7" s="2" t="s">
         <v>3</v>
       </c>
@@ -717,26 +718,29 @@
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>1100</v>
+        <v>2000</v>
       </c>
       <c r="E8" s="3">
-        <v>1100</v>
+        <v>1000</v>
       </c>
       <c r="F8" s="3">
-        <v>3000</v>
+        <v>1000</v>
       </c>
       <c r="G8" s="3">
+        <v>2900</v>
+      </c>
+      <c r="H8" s="3">
         <v>700</v>
       </c>
-      <c r="H8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I8" s="3" t="s">
         <v>3</v>
       </c>
@@ -752,8 +756,11 @@
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -787,8 +794,11 @@
       <c r="M9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -822,8 +832,11 @@
       <c r="M10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -837,25 +850,26 @@
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N11" s="3"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>5300</v>
+        <v>6500</v>
       </c>
       <c r="E12" s="3">
-        <v>18400</v>
+        <v>5100</v>
       </c>
       <c r="F12" s="3">
-        <v>8900</v>
+        <v>17800</v>
       </c>
       <c r="G12" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>3</v>
+        <v>8600</v>
+      </c>
+      <c r="H12" s="3">
+        <v>6800</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -872,8 +886,11 @@
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -907,8 +924,11 @@
       <c r="M13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -942,8 +962,11 @@
       <c r="M14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -977,8 +1000,11 @@
       <c r="M15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -989,25 +1015,26 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
-    </row>
-    <row r="17" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N16" s="3"/>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>7400</v>
+        <v>10100</v>
       </c>
       <c r="E17" s="3">
-        <v>20000</v>
+        <v>7200</v>
       </c>
       <c r="F17" s="3">
-        <v>10100</v>
+        <v>19400</v>
       </c>
       <c r="G17" s="3">
-        <v>8600</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>3</v>
+        <v>9700</v>
+      </c>
+      <c r="H17" s="3">
+        <v>8300</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1024,25 +1051,28 @@
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-6400</v>
+        <v>-8000</v>
       </c>
       <c r="E18" s="3">
-        <v>-19000</v>
+        <v>-6200</v>
       </c>
       <c r="F18" s="3">
-        <v>-7000</v>
+        <v>-18400</v>
       </c>
       <c r="G18" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="H18" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H18" s="3">
+        <v>-7600</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1059,8 +1089,11 @@
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1074,8 +1107,9 @@
       <c r="K19" s="3"/>
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
-    </row>
-    <row r="20" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N19" s="3"/>
+    </row>
+    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1086,14 +1120,14 @@
         <v>-300</v>
       </c>
       <c r="F20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="G20" s="3">
         <v>-200</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-300</v>
       </c>
-      <c r="H20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1109,8 +1143,11 @@
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1120,14 +1157,14 @@
       <c r="E21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F21" s="3">
-        <v>-7000</v>
+      <c r="F21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-8100</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
+        <v>-6800</v>
+      </c>
+      <c r="H21" s="3">
+        <v>-7900</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1144,8 +1181,11 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1155,15 +1195,15 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1179,25 +1219,28 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-6700</v>
+        <v>-8400</v>
       </c>
       <c r="E23" s="3">
-        <v>-19300</v>
+        <v>-6500</v>
       </c>
       <c r="F23" s="3">
-        <v>-7500</v>
+        <v>-18700</v>
       </c>
       <c r="G23" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H23" s="3" t="s">
-        <v>3</v>
+        <v>-7200</v>
+      </c>
+      <c r="H23" s="3">
+        <v>-8100</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1214,8 +1257,11 @@
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1231,8 +1277,8 @@
       <c r="G24" s="3">
         <v>0</v>
       </c>
-      <c r="H24" s="3" t="s">
-        <v>3</v>
+      <c r="H24" s="3">
+        <v>0</v>
       </c>
       <c r="I24" s="3" t="s">
         <v>3</v>
@@ -1249,8 +1295,11 @@
       <c r="M24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1284,25 +1333,28 @@
       <c r="M25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-6800</v>
+        <v>-8400</v>
       </c>
       <c r="E26" s="3">
-        <v>-19300</v>
+        <v>-6500</v>
       </c>
       <c r="F26" s="3">
-        <v>-7500</v>
+        <v>-18700</v>
       </c>
       <c r="G26" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H26" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="H26" s="3">
+        <v>-8100</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1319,25 +1371,28 @@
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-6800</v>
+        <v>-8400</v>
       </c>
       <c r="E27" s="3">
-        <v>-19300</v>
+        <v>-6500</v>
       </c>
       <c r="F27" s="3">
-        <v>-7500</v>
+        <v>-18700</v>
       </c>
       <c r="G27" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H27" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="H27" s="3">
+        <v>-8100</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1354,8 +1409,11 @@
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1389,8 +1447,11 @@
       <c r="M28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1424,8 +1485,11 @@
       <c r="M29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1459,8 +1523,11 @@
       <c r="M30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1494,8 +1561,11 @@
       <c r="M31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1506,14 +1576,14 @@
         <v>300</v>
       </c>
       <c r="F32" s="3">
+        <v>300</v>
+      </c>
+      <c r="G32" s="3">
         <v>200</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>300</v>
       </c>
-      <c r="H32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1529,25 +1599,28 @@
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-6800</v>
+        <v>-8400</v>
       </c>
       <c r="E33" s="3">
-        <v>-19300</v>
+        <v>-6500</v>
       </c>
       <c r="F33" s="3">
-        <v>-7500</v>
+        <v>-18700</v>
       </c>
       <c r="G33" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H33" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="H33" s="3">
+        <v>-8100</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1564,8 +1637,11 @@
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1599,25 +1675,28 @@
       <c r="M34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-6800</v>
+        <v>-8400</v>
       </c>
       <c r="E35" s="3">
-        <v>-19300</v>
+        <v>-6500</v>
       </c>
       <c r="F35" s="3">
-        <v>-7500</v>
+        <v>-18700</v>
       </c>
       <c r="G35" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H35" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="H35" s="3">
+        <v>-8100</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1634,31 +1713,34 @@
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1674,8 +1756,11 @@
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1689,8 +1774,9 @@
       <c r="K39" s="3"/>
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N39" s="3"/>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1704,25 +1790,26 @@
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
-    </row>
-    <row r="41" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N40" s="3"/>
+    </row>
+    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>149800</v>
+        <v>138500</v>
       </c>
       <c r="E41" s="3">
-        <v>157300</v>
+        <v>144900</v>
       </c>
       <c r="F41" s="3">
-        <v>13900</v>
+        <v>152100</v>
       </c>
       <c r="G41" s="3">
-        <v>9700</v>
-      </c>
-      <c r="H41" s="3" t="s">
-        <v>3</v>
+        <v>13400</v>
+      </c>
+      <c r="H41" s="3">
+        <v>9400</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1739,8 +1826,11 @@
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1750,11 +1840,11 @@
       <c r="E42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F42" s="3">
-        <v>1200</v>
-      </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
+      <c r="F42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1100</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
@@ -1774,8 +1864,11 @@
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1785,15 +1878,15 @@
       <c r="E43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F43" s="3">
+      <c r="F43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G43" s="3">
         <v>1400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>300</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1809,8 +1902,11 @@
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1844,26 +1940,29 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5600</v>
+        <v>5900</v>
       </c>
       <c r="E45" s="3">
-        <v>1200</v>
+        <v>5400</v>
       </c>
       <c r="F45" s="3">
+        <v>1100</v>
+      </c>
+      <c r="G45" s="3">
         <v>900</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>100</v>
       </c>
-      <c r="H45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,25 +1978,28 @@
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>155400</v>
+        <v>144500</v>
       </c>
       <c r="E46" s="3">
-        <v>158500</v>
+        <v>150300</v>
       </c>
       <c r="F46" s="3">
-        <v>17300</v>
+        <v>153300</v>
       </c>
       <c r="G46" s="3">
-        <v>10100</v>
-      </c>
-      <c r="H46" s="3" t="s">
-        <v>3</v>
+        <v>16800</v>
+      </c>
+      <c r="H46" s="3">
+        <v>9800</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -1914,8 +2016,11 @@
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1949,8 +2054,11 @@
       <c r="M47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1960,15 +2068,15 @@
       <c r="E48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="3">
+      <c r="F48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G48" s="3">
         <v>1400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1300</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1984,8 +2092,11 @@
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2019,8 +2130,11 @@
       <c r="M49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2054,8 +2168,11 @@
       <c r="M50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2089,25 +2206,28 @@
       <c r="M51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E52" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F52" s="3">
         <v>2100</v>
       </c>
-      <c r="E52" s="3">
-        <v>2200</v>
-      </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
-        <v>0</v>
-      </c>
-      <c r="H52" s="3" t="s">
-        <v>3</v>
+      <c r="H52" s="3">
+        <v>0</v>
       </c>
       <c r="I52" s="3" t="s">
         <v>3</v>
@@ -2124,8 +2244,11 @@
       <c r="M52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2159,25 +2282,28 @@
       <c r="M53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>157500</v>
+        <v>147000</v>
       </c>
       <c r="E54" s="3">
-        <v>160700</v>
+        <v>152300</v>
       </c>
       <c r="F54" s="3">
-        <v>19500</v>
+        <v>155400</v>
       </c>
       <c r="G54" s="3">
-        <v>11400</v>
-      </c>
-      <c r="H54" s="3" t="s">
-        <v>3</v>
+        <v>18800</v>
+      </c>
+      <c r="H54" s="3">
+        <v>11100</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2194,8 +2320,11 @@
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2209,8 +2338,9 @@
       <c r="K55" s="3"/>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
-    </row>
-    <row r="56" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N55" s="3"/>
+    </row>
+    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2224,26 +2354,27 @@
       <c r="K56" s="3"/>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
-    </row>
-    <row r="57" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N56" s="3"/>
+    </row>
+    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2259,8 +2390,11 @@
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2270,14 +2404,14 @@
       <c r="E58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F58" s="3">
-        <v>200</v>
+      <c r="F58" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>200</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2294,25 +2428,28 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="E59" s="3">
-        <v>3600</v>
+        <v>1800</v>
       </c>
       <c r="F59" s="3">
-        <v>5700</v>
+        <v>3500</v>
       </c>
       <c r="G59" s="3">
-        <v>5300</v>
-      </c>
-      <c r="H59" s="3" t="s">
-        <v>3</v>
+        <v>5500</v>
+      </c>
+      <c r="H59" s="3">
+        <v>5100</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2329,26 +2466,29 @@
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4000</v>
+        <v>4700</v>
       </c>
       <c r="E60" s="3">
-        <v>5400</v>
+        <v>3900</v>
       </c>
       <c r="F60" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G60" s="3">
+        <v>6600</v>
+      </c>
+      <c r="H60" s="3">
         <v>6800</v>
       </c>
-      <c r="G60" s="3">
-        <v>7000</v>
-      </c>
-      <c r="H60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2364,25 +2504,28 @@
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4200</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F61" s="3">
-        <v>3700</v>
+        <v>3800</v>
       </c>
       <c r="G61" s="3">
-        <v>2600</v>
+        <v>3600</v>
       </c>
       <c r="H61" s="3">
-        <v>0</v>
+        <v>2500</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2399,25 +2542,28 @@
       <c r="M61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>14300</v>
+        <v>12600</v>
       </c>
       <c r="E62" s="3">
-        <v>18900</v>
+        <v>13900</v>
       </c>
       <c r="F62" s="3">
+        <v>18300</v>
+      </c>
+      <c r="G62" s="3">
         <v>1700</v>
       </c>
-      <c r="G62" s="3">
-        <v>3800</v>
-      </c>
-      <c r="H62" s="3" t="s">
-        <v>3</v>
+      <c r="H62" s="3">
+        <v>3700</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2434,8 +2580,11 @@
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2469,8 +2618,11 @@
       <c r="M63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2504,8 +2656,11 @@
       <c r="M64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2539,25 +2694,28 @@
       <c r="M65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>22600</v>
+        <v>21900</v>
       </c>
       <c r="E66" s="3">
-        <v>28200</v>
+        <v>21800</v>
       </c>
       <c r="F66" s="3">
-        <v>12200</v>
+        <v>27300</v>
       </c>
       <c r="G66" s="3">
-        <v>13400</v>
-      </c>
-      <c r="H66" s="3" t="s">
-        <v>3</v>
+        <v>11800</v>
+      </c>
+      <c r="H66" s="3">
+        <v>13000</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2574,8 +2732,11 @@
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2589,8 +2750,9 @@
       <c r="K67" s="3"/>
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
-    </row>
-    <row r="68" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N67" s="3"/>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2624,8 +2786,11 @@
       <c r="M68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2659,8 +2824,11 @@
       <c r="M69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2694,8 +2862,11 @@
       <c r="M70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2729,8 +2900,11 @@
       <c r="M71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2740,14 +2914,14 @@
       <c r="E72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F72" s="3">
-        <v>-33400</v>
+      <c r="F72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>-21900</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
+        <v>-32300</v>
+      </c>
+      <c r="H72" s="3">
+        <v>-21200</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -2764,8 +2938,11 @@
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2799,8 +2976,11 @@
       <c r="M73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2834,8 +3014,11 @@
       <c r="M74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2869,25 +3052,28 @@
       <c r="M75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>134900</v>
+        <v>125100</v>
       </c>
       <c r="E76" s="3">
-        <v>132500</v>
+        <v>130500</v>
       </c>
       <c r="F76" s="3">
-        <v>7200</v>
+        <v>128100</v>
       </c>
       <c r="G76" s="3">
-        <v>-2000</v>
-      </c>
-      <c r="H76" s="3" t="s">
-        <v>3</v>
+        <v>7000</v>
+      </c>
+      <c r="H76" s="3">
+        <v>-1900</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -2904,8 +3090,11 @@
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2939,31 +3128,34 @@
       <c r="M77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="N77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="E80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="I80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2979,25 +3171,28 @@
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-6800</v>
+        <v>-8400</v>
       </c>
       <c r="E81" s="3">
-        <v>-19300</v>
+        <v>-6500</v>
       </c>
       <c r="F81" s="3">
-        <v>-7500</v>
+        <v>-18700</v>
       </c>
       <c r="G81" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="H81" s="3" t="s">
-        <v>3</v>
+        <v>-7300</v>
+      </c>
+      <c r="H81" s="3">
+        <v>-8100</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>
@@ -3014,8 +3209,11 @@
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3029,8 +3227,9 @@
       <c r="K82" s="3"/>
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
-    </row>
-    <row r="83" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N82" s="3"/>
+    </row>
+    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3058,14 +3257,17 @@
       <c r="K83" s="3">
         <v>0</v>
       </c>
-      <c r="L83" s="3" t="s">
-        <v>3</v>
+      <c r="L83" s="3">
+        <v>0</v>
       </c>
       <c r="M83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3099,8 +3301,11 @@
       <c r="M84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3134,8 +3339,11 @@
       <c r="M85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3169,8 +3377,11 @@
       <c r="M86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3204,8 +3415,11 @@
       <c r="M87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3239,8 +3453,11 @@
       <c r="M88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3268,14 +3485,17 @@
       <c r="K89" s="3">
         <v>0</v>
       </c>
-      <c r="L89" s="3" t="s">
-        <v>3</v>
+      <c r="L89" s="3">
+        <v>0</v>
       </c>
       <c r="M89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3289,8 +3509,9 @@
       <c r="K90" s="3"/>
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
-    </row>
-    <row r="91" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N90" s="3"/>
+    </row>
+    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3318,14 +3539,17 @@
       <c r="K91" s="3">
         <v>0</v>
       </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
+      <c r="L91" s="3">
+        <v>0</v>
       </c>
       <c r="M91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3359,8 +3583,11 @@
       <c r="M92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3394,8 +3621,11 @@
       <c r="M93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3423,14 +3653,17 @@
       <c r="K94" s="3">
         <v>0</v>
       </c>
-      <c r="L94" s="3" t="s">
-        <v>3</v>
+      <c r="L94" s="3">
+        <v>0</v>
       </c>
       <c r="M94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3444,8 +3677,9 @@
       <c r="K95" s="3"/>
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
-    </row>
-    <row r="96" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N95" s="3"/>
+    </row>
+    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3479,8 +3713,11 @@
       <c r="M96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3514,8 +3751,11 @@
       <c r="M97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3549,8 +3789,11 @@
       <c r="M98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3584,8 +3827,11 @@
       <c r="M99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3613,14 +3859,17 @@
       <c r="K100" s="3">
         <v>0</v>
       </c>
-      <c r="L100" s="3" t="s">
-        <v>3</v>
+      <c r="L100" s="3">
+        <v>0</v>
       </c>
       <c r="M100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3648,14 +3897,17 @@
       <c r="K101" s="3">
         <v>0</v>
       </c>
-      <c r="L101" s="3" t="s">
-        <v>3</v>
+      <c r="L101" s="3">
+        <v>0</v>
       </c>
       <c r="M101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:13" x14ac:dyDescent="0.2">
+      <c r="N101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3683,10 +3935,13 @@
       <c r="K102" s="3">
         <v>0</v>
       </c>
-      <c r="L102" s="3" t="s">
-        <v>3</v>
+      <c r="L102" s="3">
+        <v>0</v>
       </c>
       <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -736,7 +736,7 @@
         <v>1000</v>
       </c>
       <c r="G8" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="H8" s="3">
         <v>700</v>
@@ -857,19 +857,19 @@
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6500</v>
+        <v>6200</v>
       </c>
       <c r="E12" s="3">
-        <v>5100</v>
+        <v>4900</v>
       </c>
       <c r="F12" s="3">
-        <v>17800</v>
+        <v>17200</v>
       </c>
       <c r="G12" s="3">
-        <v>8600</v>
+        <v>8300</v>
       </c>
       <c r="H12" s="3">
-        <v>6800</v>
+        <v>6600</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>3</v>
@@ -1022,19 +1022,19 @@
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>10100</v>
+        <v>9700</v>
       </c>
       <c r="E17" s="3">
-        <v>7200</v>
+        <v>6900</v>
       </c>
       <c r="F17" s="3">
-        <v>19400</v>
+        <v>18700</v>
       </c>
       <c r="G17" s="3">
-        <v>9700</v>
+        <v>9400</v>
       </c>
       <c r="H17" s="3">
-        <v>8300</v>
+        <v>8000</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>3</v>
@@ -1060,19 +1060,19 @@
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-8000</v>
+        <v>-7800</v>
       </c>
       <c r="E18" s="3">
-        <v>-6200</v>
+        <v>-6000</v>
       </c>
       <c r="F18" s="3">
-        <v>-18400</v>
+        <v>-17700</v>
       </c>
       <c r="G18" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="H18" s="3">
-        <v>-7600</v>
+        <v>-7400</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>3</v>
@@ -1161,10 +1161,10 @@
         <v>3</v>
       </c>
       <c r="G21" s="3">
-        <v>-6800</v>
+        <v>-6600</v>
       </c>
       <c r="H21" s="3">
-        <v>-7900</v>
+        <v>-7600</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>3</v>
@@ -1228,19 +1228,19 @@
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="E23" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F23" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="G23" s="3">
-        <v>-7200</v>
+        <v>-7000</v>
       </c>
       <c r="H23" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>3</v>
@@ -1342,19 +1342,19 @@
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="E26" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F26" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="G26" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="H26" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I26" s="3" t="s">
         <v>3</v>
@@ -1380,19 +1380,19 @@
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="E27" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F27" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="G27" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="H27" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>3</v>
@@ -1608,19 +1608,19 @@
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="E33" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F33" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="G33" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="H33" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>3</v>
@@ -1684,19 +1684,19 @@
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="E35" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F35" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="G35" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="H35" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>3</v>
@@ -1797,19 +1797,19 @@
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>138500</v>
+        <v>133800</v>
       </c>
       <c r="E41" s="3">
-        <v>144900</v>
+        <v>140000</v>
       </c>
       <c r="F41" s="3">
-        <v>152100</v>
+        <v>147000</v>
       </c>
       <c r="G41" s="3">
-        <v>13400</v>
+        <v>13000</v>
       </c>
       <c r="H41" s="3">
-        <v>9400</v>
+        <v>9100</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>3</v>
@@ -1882,10 +1882,10 @@
         <v>3</v>
       </c>
       <c r="G43" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H43" s="3">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
@@ -1949,16 +1949,16 @@
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5900</v>
+        <v>5700</v>
       </c>
       <c r="E45" s="3">
-        <v>5400</v>
+        <v>5200</v>
       </c>
       <c r="F45" s="3">
         <v>1100</v>
       </c>
       <c r="G45" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H45" s="3">
         <v>100</v>
@@ -1987,19 +1987,19 @@
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>144500</v>
+        <v>139600</v>
       </c>
       <c r="E46" s="3">
-        <v>150300</v>
+        <v>145200</v>
       </c>
       <c r="F46" s="3">
-        <v>153300</v>
+        <v>148100</v>
       </c>
       <c r="G46" s="3">
-        <v>16800</v>
+        <v>16200</v>
       </c>
       <c r="H46" s="3">
-        <v>9800</v>
+        <v>9400</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>3</v>
@@ -2072,10 +2072,10 @@
         <v>3</v>
       </c>
       <c r="G48" s="3">
-        <v>1400</v>
+        <v>1300</v>
       </c>
       <c r="H48" s="3">
-        <v>1300</v>
+        <v>1200</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
@@ -2215,13 +2215,13 @@
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2600</v>
+        <v>2500</v>
       </c>
       <c r="E52" s="3">
+        <v>1900</v>
+      </c>
+      <c r="F52" s="3">
         <v>2000</v>
-      </c>
-      <c r="F52" s="3">
-        <v>2100</v>
       </c>
       <c r="G52" s="3">
         <v>700</v>
@@ -2291,19 +2291,19 @@
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>147000</v>
+        <v>142100</v>
       </c>
       <c r="E54" s="3">
-        <v>152300</v>
+        <v>147200</v>
       </c>
       <c r="F54" s="3">
-        <v>155400</v>
+        <v>150100</v>
       </c>
       <c r="G54" s="3">
-        <v>18800</v>
+        <v>18200</v>
       </c>
       <c r="H54" s="3">
-        <v>11100</v>
+        <v>10700</v>
       </c>
       <c r="I54" s="3" t="s">
         <v>3</v>
@@ -2361,19 +2361,19 @@
         <v>50</v>
       </c>
       <c r="D57" s="3">
-        <v>1900</v>
+        <v>1800</v>
       </c>
       <c r="E57" s="3">
-        <v>2100</v>
+        <v>2000</v>
       </c>
       <c r="F57" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="G57" s="3">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="H57" s="3">
-        <v>1500</v>
+        <v>1400</v>
       </c>
       <c r="I57" s="3" t="s">
         <v>3</v>
@@ -2411,7 +2411,7 @@
         <v>200</v>
       </c>
       <c r="H58" s="3">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2437,19 +2437,19 @@
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2900</v>
+        <v>2800</v>
       </c>
       <c r="E59" s="3">
         <v>1800</v>
       </c>
       <c r="F59" s="3">
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="G59" s="3">
-        <v>5500</v>
+        <v>5400</v>
       </c>
       <c r="H59" s="3">
-        <v>5100</v>
+        <v>5000</v>
       </c>
       <c r="I59" s="3" t="s">
         <v>3</v>
@@ -2475,19 +2475,19 @@
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>4700</v>
+        <v>4600</v>
       </c>
       <c r="E60" s="3">
-        <v>3900</v>
+        <v>3700</v>
       </c>
       <c r="F60" s="3">
-        <v>5200</v>
+        <v>5000</v>
       </c>
       <c r="G60" s="3">
+        <v>6400</v>
+      </c>
+      <c r="H60" s="3">
         <v>6600</v>
-      </c>
-      <c r="H60" s="3">
-        <v>6800</v>
       </c>
       <c r="I60" s="3" t="s">
         <v>3</v>
@@ -2513,19 +2513,19 @@
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4600</v>
+        <v>4500</v>
       </c>
       <c r="E61" s="3">
-        <v>4100</v>
+        <v>4000</v>
       </c>
       <c r="F61" s="3">
-        <v>3800</v>
+        <v>3700</v>
       </c>
       <c r="G61" s="3">
-        <v>3600</v>
+        <v>3400</v>
       </c>
       <c r="H61" s="3">
-        <v>2500</v>
+        <v>2400</v>
       </c>
       <c r="I61" s="3">
         <v>0</v>
@@ -2551,19 +2551,19 @@
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12600</v>
+        <v>12200</v>
       </c>
       <c r="E62" s="3">
-        <v>13900</v>
+        <v>13400</v>
       </c>
       <c r="F62" s="3">
-        <v>18300</v>
+        <v>17700</v>
       </c>
       <c r="G62" s="3">
-        <v>1700</v>
+        <v>1600</v>
       </c>
       <c r="H62" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="I62" s="3" t="s">
         <v>3</v>
@@ -2703,19 +2703,19 @@
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21900</v>
+        <v>21200</v>
       </c>
       <c r="E66" s="3">
-        <v>21800</v>
+        <v>21100</v>
       </c>
       <c r="F66" s="3">
-        <v>27300</v>
+        <v>26400</v>
       </c>
       <c r="G66" s="3">
-        <v>11800</v>
+        <v>11400</v>
       </c>
       <c r="H66" s="3">
-        <v>13000</v>
+        <v>12500</v>
       </c>
       <c r="I66" s="3" t="s">
         <v>3</v>
@@ -2918,10 +2918,10 @@
         <v>3</v>
       </c>
       <c r="G72" s="3">
-        <v>-32300</v>
+        <v>-31200</v>
       </c>
       <c r="H72" s="3">
-        <v>-21200</v>
+        <v>-20500</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
@@ -3061,19 +3061,19 @@
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>125100</v>
+        <v>120900</v>
       </c>
       <c r="E76" s="3">
-        <v>130500</v>
+        <v>126100</v>
       </c>
       <c r="F76" s="3">
-        <v>128100</v>
+        <v>123800</v>
       </c>
       <c r="G76" s="3">
-        <v>7000</v>
+        <v>6800</v>
       </c>
       <c r="H76" s="3">
-        <v>-1900</v>
+        <v>-1800</v>
       </c>
       <c r="I76" s="3" t="s">
         <v>3</v>
@@ -3180,19 +3180,19 @@
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8400</v>
+        <v>-8100</v>
       </c>
       <c r="E81" s="3">
-        <v>-6500</v>
+        <v>-6300</v>
       </c>
       <c r="F81" s="3">
-        <v>-18700</v>
+        <v>-18100</v>
       </c>
       <c r="G81" s="3">
-        <v>-7300</v>
+        <v>-7000</v>
       </c>
       <c r="H81" s="3">
-        <v>-8100</v>
+        <v>-7800</v>
       </c>
       <c r="I81" s="3" t="s">
         <v>3</v>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:N102"/>
+  <dimension ref="A5:O102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,47 +665,47 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="14" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
         <v>44469</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
@@ -721,28 +721,31 @@
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
-        <v>2000</v>
+        <v>5000</v>
       </c>
       <c r="E8" s="3">
-        <v>1000</v>
+        <v>1800</v>
       </c>
       <c r="F8" s="3">
-        <v>1000</v>
+        <v>900</v>
       </c>
       <c r="G8" s="3">
-        <v>2800</v>
+        <v>900</v>
       </c>
       <c r="H8" s="3">
-        <v>700</v>
-      </c>
-      <c r="I8" s="3" t="s">
-        <v>3</v>
+        <v>3500</v>
+      </c>
+      <c r="I8" s="3">
+        <v>600</v>
       </c>
       <c r="J8" s="3" t="s">
         <v>3</v>
@@ -759,8 +762,11 @@
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -797,8 +803,11 @@
       <c r="N9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -835,8 +844,11 @@
       <c r="N10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -851,28 +863,29 @@
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O11" s="3"/>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
-        <v>6200</v>
+        <v>37200</v>
       </c>
       <c r="E12" s="3">
-        <v>4900</v>
+        <v>5700</v>
       </c>
       <c r="F12" s="3">
-        <v>17200</v>
+        <v>4500</v>
       </c>
       <c r="G12" s="3">
-        <v>8300</v>
+        <v>15700</v>
       </c>
       <c r="H12" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>3</v>
+        <v>15700</v>
+      </c>
+      <c r="I12" s="3">
+        <v>6000</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>3</v>
@@ -889,8 +902,11 @@
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -927,8 +943,11 @@
       <c r="N13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -965,8 +984,11 @@
       <c r="N14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1003,8 +1025,11 @@
       <c r="N15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="O15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1016,28 +1041,29 @@
       <c r="L16" s="3"/>
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
-    </row>
-    <row r="17" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O16" s="3"/>
+    </row>
+    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
-        <v>9700</v>
+        <v>49400</v>
       </c>
       <c r="E17" s="3">
-        <v>6900</v>
+        <v>8900</v>
       </c>
       <c r="F17" s="3">
-        <v>18700</v>
+        <v>6400</v>
       </c>
       <c r="G17" s="3">
-        <v>9400</v>
+        <v>17200</v>
       </c>
       <c r="H17" s="3">
-        <v>8000</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>3</v>
+        <v>18400</v>
+      </c>
+      <c r="I17" s="3">
+        <v>7400</v>
       </c>
       <c r="J17" s="3" t="s">
         <v>3</v>
@@ -1054,28 +1080,31 @@
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-7800</v>
+        <v>-44400</v>
       </c>
       <c r="E18" s="3">
-        <v>-6000</v>
+        <v>-7100</v>
       </c>
       <c r="F18" s="3">
-        <v>-17700</v>
+        <v>-5500</v>
       </c>
       <c r="G18" s="3">
-        <v>-6600</v>
+        <v>-16300</v>
       </c>
       <c r="H18" s="3">
-        <v>-7400</v>
-      </c>
-      <c r="I18" s="3" t="s">
-        <v>3</v>
+        <v>-14900</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-6800</v>
       </c>
       <c r="J18" s="3" t="s">
         <v>3</v>
@@ -1092,8 +1121,11 @@
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1108,13 +1140,14 @@
       <c r="L19" s="3"/>
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
-    </row>
-    <row r="20" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O19" s="3"/>
+    </row>
+    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>-300</v>
+        <v>-800</v>
       </c>
       <c r="E20" s="3">
         <v>-300</v>
@@ -1123,14 +1156,14 @@
         <v>-300</v>
       </c>
       <c r="G20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="H20" s="3">
         <v>-200</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-300</v>
       </c>
-      <c r="I20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1146,8 +1179,11 @@
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1160,14 +1196,14 @@
       <c r="F21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G21" s="3">
-        <v>-6600</v>
+      <c r="G21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H21" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+        <v>-14700</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-7000</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1184,8 +1220,11 @@
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1198,15 +1237,15 @@
       <c r="F22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G22" s="3">
-        <v>200</v>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H22" s="3">
+        <v>300</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1222,28 +1261,31 @@
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-8100</v>
+        <v>-45200</v>
       </c>
       <c r="E23" s="3">
-        <v>-6300</v>
+        <v>-7400</v>
       </c>
       <c r="F23" s="3">
-        <v>-18100</v>
+        <v>-5800</v>
       </c>
       <c r="G23" s="3">
-        <v>-7000</v>
+        <v>-16600</v>
       </c>
       <c r="H23" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-7100</v>
       </c>
       <c r="J23" s="3" t="s">
         <v>3</v>
@@ -1260,13 +1302,16 @@
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E24" s="3">
         <v>0</v>
@@ -1280,8 +1325,8 @@
       <c r="H24" s="3">
         <v>0</v>
       </c>
-      <c r="I24" s="3" t="s">
-        <v>3</v>
+      <c r="I24" s="3">
+        <v>0</v>
       </c>
       <c r="J24" s="3" t="s">
         <v>3</v>
@@ -1298,8 +1343,11 @@
       <c r="N24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1336,28 +1384,31 @@
       <c r="N25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-8100</v>
+        <v>-45300</v>
       </c>
       <c r="E26" s="3">
-        <v>-6300</v>
+        <v>-7500</v>
       </c>
       <c r="F26" s="3">
-        <v>-18100</v>
+        <v>-5800</v>
       </c>
       <c r="G26" s="3">
-        <v>-7000</v>
+        <v>-16600</v>
       </c>
       <c r="H26" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I26" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-7100</v>
       </c>
       <c r="J26" s="3" t="s">
         <v>3</v>
@@ -1374,28 +1425,31 @@
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-8100</v>
+        <v>-45300</v>
       </c>
       <c r="E27" s="3">
-        <v>-6300</v>
+        <v>-7500</v>
       </c>
       <c r="F27" s="3">
-        <v>-18100</v>
+        <v>-5800</v>
       </c>
       <c r="G27" s="3">
-        <v>-7000</v>
+        <v>-16600</v>
       </c>
       <c r="H27" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I27" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-7100</v>
       </c>
       <c r="J27" s="3" t="s">
         <v>3</v>
@@ -1412,8 +1466,11 @@
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1450,8 +1507,11 @@
       <c r="N28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1488,8 +1548,11 @@
       <c r="N29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1526,8 +1589,11 @@
       <c r="N30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1564,13 +1630,16 @@
       <c r="N31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>300</v>
+        <v>800</v>
       </c>
       <c r="E32" s="3">
         <v>300</v>
@@ -1579,14 +1648,14 @@
         <v>300</v>
       </c>
       <c r="G32" s="3">
+        <v>300</v>
+      </c>
+      <c r="H32" s="3">
         <v>200</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>300</v>
       </c>
-      <c r="I32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1602,28 +1671,31 @@
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-8100</v>
+        <v>-45300</v>
       </c>
       <c r="E33" s="3">
-        <v>-6300</v>
+        <v>-7500</v>
       </c>
       <c r="F33" s="3">
-        <v>-18100</v>
+        <v>-5800</v>
       </c>
       <c r="G33" s="3">
-        <v>-7000</v>
+        <v>-16600</v>
       </c>
       <c r="H33" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I33" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-7100</v>
       </c>
       <c r="J33" s="3" t="s">
         <v>3</v>
@@ -1640,8 +1712,11 @@
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1678,28 +1753,31 @@
       <c r="N34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-8100</v>
+        <v>-45300</v>
       </c>
       <c r="E35" s="3">
-        <v>-6300</v>
+        <v>-7500</v>
       </c>
       <c r="F35" s="3">
-        <v>-18100</v>
+        <v>-5800</v>
       </c>
       <c r="G35" s="3">
-        <v>-7000</v>
+        <v>-16600</v>
       </c>
       <c r="H35" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I35" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-7100</v>
       </c>
       <c r="J35" s="3" t="s">
         <v>3</v>
@@ -1716,34 +1794,37 @@
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
         <v>44469</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1759,8 +1840,11 @@
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1775,8 +1859,9 @@
       <c r="L39" s="3"/>
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
-    </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O39" s="3"/>
+    </row>
+    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1791,28 +1876,29 @@
       <c r="L40" s="3"/>
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
-    </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O40" s="3"/>
+    </row>
+    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>133800</v>
+        <v>14400</v>
       </c>
       <c r="E41" s="3">
-        <v>140000</v>
+        <v>122700</v>
       </c>
       <c r="F41" s="3">
-        <v>147000</v>
+        <v>128400</v>
       </c>
       <c r="G41" s="3">
-        <v>13000</v>
+        <v>134700</v>
       </c>
       <c r="H41" s="3">
-        <v>9100</v>
-      </c>
-      <c r="I41" s="3" t="s">
-        <v>3</v>
+        <v>14600</v>
+      </c>
+      <c r="I41" s="3">
+        <v>8300</v>
       </c>
       <c r="J41" s="3" t="s">
         <v>3</v>
@@ -1829,13 +1915,16 @@
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>118800</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>3</v>
@@ -1843,11 +1932,11 @@
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G42" s="3">
-        <v>1100</v>
-      </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
+      <c r="G42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H42" s="3">
+        <v>1200</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
@@ -1867,13 +1956,16 @@
       <c r="N42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>700</v>
       </c>
       <c r="E43" s="3" t="s">
         <v>3</v>
@@ -1881,15 +1973,15 @@
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G43" s="3">
-        <v>1300</v>
+      <c r="G43" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H43" s="3">
+        <v>1500</v>
+      </c>
+      <c r="I43" s="3">
         <v>200</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1905,8 +1997,11 @@
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1943,29 +2038,32 @@
       <c r="N44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>5700</v>
+        <v>2600</v>
       </c>
       <c r="E45" s="3">
-        <v>5200</v>
+        <v>5300</v>
       </c>
       <c r="F45" s="3">
-        <v>1100</v>
+        <v>4800</v>
       </c>
       <c r="G45" s="3">
-        <v>800</v>
+        <v>1000</v>
       </c>
       <c r="H45" s="3">
+        <v>900</v>
+      </c>
+      <c r="I45" s="3">
         <v>100</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1981,28 +2079,31 @@
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>139600</v>
+        <v>136500</v>
       </c>
       <c r="E46" s="3">
-        <v>145200</v>
+        <v>127900</v>
       </c>
       <c r="F46" s="3">
-        <v>148100</v>
+        <v>133100</v>
       </c>
       <c r="G46" s="3">
-        <v>16200</v>
+        <v>135800</v>
       </c>
       <c r="H46" s="3">
-        <v>9400</v>
-      </c>
-      <c r="I46" s="3" t="s">
-        <v>3</v>
+        <v>18200</v>
+      </c>
+      <c r="I46" s="3">
+        <v>8600</v>
       </c>
       <c r="J46" s="3" t="s">
         <v>3</v>
@@ -2019,8 +2120,11 @@
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2057,13 +2161,16 @@
       <c r="N47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>1900</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>3</v>
@@ -2071,14 +2178,14 @@
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G48" s="3">
-        <v>1300</v>
+      <c r="G48" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H48" s="3">
-        <v>1200</v>
-      </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
+        <v>1500</v>
+      </c>
+      <c r="I48" s="3">
+        <v>1100</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
@@ -2095,8 +2202,11 @@
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2133,8 +2243,11 @@
       <c r="N49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2171,8 +2284,11 @@
       <c r="N50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2209,28 +2325,31 @@
       <c r="N51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2500</v>
+        <v>800</v>
       </c>
       <c r="E52" s="3">
+        <v>2300</v>
+      </c>
+      <c r="F52" s="3">
+        <v>1800</v>
+      </c>
+      <c r="G52" s="3">
         <v>1900</v>
       </c>
-      <c r="F52" s="3">
-        <v>2000</v>
-      </c>
-      <c r="G52" s="3">
-        <v>700</v>
-      </c>
       <c r="H52" s="3">
-        <v>0</v>
-      </c>
-      <c r="I52" s="3" t="s">
-        <v>3</v>
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
+        <v>0</v>
       </c>
       <c r="J52" s="3" t="s">
         <v>3</v>
@@ -2247,8 +2366,11 @@
       <c r="N52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2285,28 +2407,31 @@
       <c r="N53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
-        <v>142100</v>
+        <v>139200</v>
       </c>
       <c r="E54" s="3">
-        <v>147200</v>
+        <v>130200</v>
       </c>
       <c r="F54" s="3">
-        <v>150100</v>
+        <v>134900</v>
       </c>
       <c r="G54" s="3">
-        <v>18200</v>
+        <v>137600</v>
       </c>
       <c r="H54" s="3">
-        <v>10700</v>
-      </c>
-      <c r="I54" s="3" t="s">
-        <v>3</v>
+        <v>20500</v>
+      </c>
+      <c r="I54" s="3">
+        <v>9800</v>
       </c>
       <c r="J54" s="3" t="s">
         <v>3</v>
@@ -2323,8 +2448,11 @@
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2339,8 +2467,9 @@
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
-    </row>
-    <row r="56" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O55" s="3"/>
+    </row>
+    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2355,28 +2484,29 @@
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
-    </row>
-    <row r="57" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O56" s="3"/>
+    </row>
+    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F57" s="3">
         <v>1800</v>
       </c>
-      <c r="E57" s="3">
-        <v>2000</v>
-      </c>
-      <c r="F57" s="3">
-        <v>1600</v>
-      </c>
       <c r="G57" s="3">
-        <v>800</v>
+        <v>1500</v>
       </c>
       <c r="H57" s="3">
-        <v>1400</v>
-      </c>
-      <c r="I57" s="3" t="s">
-        <v>3</v>
+        <v>900</v>
+      </c>
+      <c r="I57" s="3">
+        <v>1300</v>
       </c>
       <c r="J57" s="3" t="s">
         <v>3</v>
@@ -2393,13 +2523,16 @@
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>300</v>
       </c>
       <c r="E58" s="3" t="s">
         <v>3</v>
@@ -2407,15 +2540,15 @@
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G58" s="3">
+      <c r="G58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H58" s="3">
         <v>200</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>100</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2431,28 +2564,31 @@
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>2800</v>
+        <v>8400</v>
       </c>
       <c r="E59" s="3">
-        <v>1800</v>
+        <v>2500</v>
       </c>
       <c r="F59" s="3">
-        <v>3400</v>
+        <v>1600</v>
       </c>
       <c r="G59" s="3">
-        <v>5400</v>
+        <v>3100</v>
       </c>
       <c r="H59" s="3">
-        <v>5000</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>3</v>
+        <v>6200</v>
+      </c>
+      <c r="I59" s="3">
+        <v>4600</v>
       </c>
       <c r="J59" s="3" t="s">
         <v>3</v>
@@ -2469,28 +2605,31 @@
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>11200</v>
+      </c>
+      <c r="E60" s="3">
+        <v>4200</v>
+      </c>
+      <c r="F60" s="3">
+        <v>3400</v>
+      </c>
+      <c r="G60" s="3">
         <v>4600</v>
       </c>
-      <c r="E60" s="3">
-        <v>3700</v>
-      </c>
-      <c r="F60" s="3">
-        <v>5000</v>
-      </c>
-      <c r="G60" s="3">
-        <v>6400</v>
-      </c>
       <c r="H60" s="3">
-        <v>6600</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>3</v>
+        <v>7300</v>
+      </c>
+      <c r="I60" s="3">
+        <v>6000</v>
       </c>
       <c r="J60" s="3" t="s">
         <v>3</v>
@@ -2507,28 +2646,31 @@
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>4500</v>
+        <v>4600</v>
       </c>
       <c r="E61" s="3">
-        <v>4000</v>
+        <v>4100</v>
       </c>
       <c r="F61" s="3">
-        <v>3700</v>
+        <v>3600</v>
       </c>
       <c r="G61" s="3">
         <v>3400</v>
       </c>
       <c r="H61" s="3">
-        <v>2400</v>
+        <v>3900</v>
       </c>
       <c r="I61" s="3">
-        <v>0</v>
+        <v>2200</v>
       </c>
       <c r="J61" s="3">
         <v>0</v>
@@ -2545,28 +2687,31 @@
       <c r="N61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>12200</v>
+        <v>5000</v>
       </c>
       <c r="E62" s="3">
-        <v>13400</v>
+        <v>11200</v>
       </c>
       <c r="F62" s="3">
-        <v>17700</v>
+        <v>12300</v>
       </c>
       <c r="G62" s="3">
-        <v>1600</v>
+        <v>16200</v>
       </c>
       <c r="H62" s="3">
-        <v>3600</v>
-      </c>
-      <c r="I62" s="3" t="s">
-        <v>3</v>
+        <v>1700</v>
+      </c>
+      <c r="I62" s="3">
+        <v>3300</v>
       </c>
       <c r="J62" s="3" t="s">
         <v>3</v>
@@ -2583,8 +2728,11 @@
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2621,8 +2769,11 @@
       <c r="N63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2659,8 +2810,11 @@
       <c r="N64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2697,28 +2851,31 @@
       <c r="N65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
-        <v>21200</v>
+        <v>20900</v>
       </c>
       <c r="E66" s="3">
-        <v>21100</v>
+        <v>19400</v>
       </c>
       <c r="F66" s="3">
-        <v>26400</v>
+        <v>19300</v>
       </c>
       <c r="G66" s="3">
-        <v>11400</v>
+        <v>24200</v>
       </c>
       <c r="H66" s="3">
-        <v>12500</v>
-      </c>
-      <c r="I66" s="3" t="s">
-        <v>3</v>
+        <v>12900</v>
+      </c>
+      <c r="I66" s="3">
+        <v>11500</v>
       </c>
       <c r="J66" s="3" t="s">
         <v>3</v>
@@ -2735,8 +2892,11 @@
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2751,8 +2911,9 @@
       <c r="L67" s="3"/>
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
-    </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O67" s="3"/>
+    </row>
+    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2789,8 +2950,11 @@
       <c r="N68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2827,8 +2991,11 @@
       <c r="N69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2865,8 +3032,11 @@
       <c r="N70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2903,13 +3073,16 @@
       <c r="N71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-73500</v>
       </c>
       <c r="E72" s="3" t="s">
         <v>3</v>
@@ -2917,14 +3090,14 @@
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="G72" s="3">
-        <v>-31200</v>
+      <c r="G72" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="H72" s="3">
-        <v>-20500</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
+        <v>-32500</v>
+      </c>
+      <c r="I72" s="3">
+        <v>-18800</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
@@ -2941,8 +3114,11 @@
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2979,8 +3155,11 @@
       <c r="N73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3017,8 +3196,11 @@
       <c r="N74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3055,28 +3237,31 @@
       <c r="N75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
-        <v>120900</v>
+        <v>118400</v>
       </c>
       <c r="E76" s="3">
-        <v>126100</v>
+        <v>110800</v>
       </c>
       <c r="F76" s="3">
-        <v>123800</v>
+        <v>115600</v>
       </c>
       <c r="G76" s="3">
-        <v>6800</v>
+        <v>113500</v>
       </c>
       <c r="H76" s="3">
-        <v>-1800</v>
-      </c>
-      <c r="I76" s="3" t="s">
-        <v>3</v>
+        <v>7600</v>
+      </c>
+      <c r="I76" s="3">
+        <v>-1700</v>
       </c>
       <c r="J76" s="3" t="s">
         <v>3</v>
@@ -3093,8 +3278,11 @@
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3131,34 +3319,37 @@
       <c r="N77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="O77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
         <v>44469</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3174,28 +3365,31 @@
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-8100</v>
+        <v>-45300</v>
       </c>
       <c r="E81" s="3">
-        <v>-6300</v>
+        <v>-7500</v>
       </c>
       <c r="F81" s="3">
-        <v>-18100</v>
+        <v>-5800</v>
       </c>
       <c r="G81" s="3">
-        <v>-7000</v>
+        <v>-16600</v>
       </c>
       <c r="H81" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="I81" s="3" t="s">
-        <v>3</v>
+        <v>-15500</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-7100</v>
       </c>
       <c r="J81" s="3" t="s">
         <v>3</v>
@@ -3212,8 +3406,11 @@
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3228,8 +3425,9 @@
       <c r="L82" s="3"/>
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
-    </row>
-    <row r="83" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O82" s="3"/>
+    </row>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3260,14 +3458,17 @@
       <c r="L83" s="3">
         <v>0</v>
       </c>
-      <c r="M83" s="3" t="s">
-        <v>3</v>
+      <c r="M83" s="3">
+        <v>0</v>
       </c>
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3304,8 +3505,11 @@
       <c r="N84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3342,8 +3546,11 @@
       <c r="N85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3380,8 +3587,11 @@
       <c r="N86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3418,8 +3628,11 @@
       <c r="N87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3456,8 +3669,11 @@
       <c r="N88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3488,14 +3704,17 @@
       <c r="L89" s="3">
         <v>0</v>
       </c>
-      <c r="M89" s="3" t="s">
-        <v>3</v>
+      <c r="M89" s="3">
+        <v>0</v>
       </c>
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3510,8 +3729,9 @@
       <c r="L90" s="3"/>
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
-    </row>
-    <row r="91" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O90" s="3"/>
+    </row>
+    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3542,14 +3762,17 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3586,8 +3809,11 @@
       <c r="N92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3624,8 +3850,11 @@
       <c r="N93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3656,14 +3885,17 @@
       <c r="L94" s="3">
         <v>0</v>
       </c>
-      <c r="M94" s="3" t="s">
-        <v>3</v>
+      <c r="M94" s="3">
+        <v>0</v>
       </c>
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3678,8 +3910,9 @@
       <c r="L95" s="3"/>
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
-    </row>
-    <row r="96" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O95" s="3"/>
+    </row>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3716,8 +3949,11 @@
       <c r="N96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3754,8 +3990,11 @@
       <c r="N97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -3792,8 +4031,11 @@
       <c r="N98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -3830,8 +4072,11 @@
       <c r="N99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -3862,14 +4107,17 @@
       <c r="L100" s="3">
         <v>0</v>
       </c>
-      <c r="M100" s="3" t="s">
-        <v>3</v>
+      <c r="M100" s="3">
+        <v>0</v>
       </c>
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -3900,14 +4148,17 @@
       <c r="L101" s="3">
         <v>0</v>
       </c>
-      <c r="M101" s="3" t="s">
-        <v>3</v>
+      <c r="M101" s="3">
+        <v>0</v>
       </c>
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:14" x14ac:dyDescent="0.2">
+      <c r="O101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -3938,10 +4189,13 @@
       <c r="L102" s="3">
         <v>0</v>
       </c>
-      <c r="M102" s="3" t="s">
-        <v>3</v>
+      <c r="M102" s="3">
+        <v>0</v>
       </c>
       <c r="N102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:O102"/>
+  <dimension ref="A5:P102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,50 +665,51 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K7" s="2" t="s">
         <v>3</v>
       </c>
@@ -724,32 +725,35 @@
       <c r="O7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="3">
         <v>5000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1800</v>
-      </c>
-      <c r="F8" s="3">
-        <v>900</v>
       </c>
       <c r="G8" s="3">
         <v>900</v>
       </c>
       <c r="H8" s="3">
+        <v>900</v>
+      </c>
+      <c r="I8" s="3">
         <v>3500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>600</v>
       </c>
-      <c r="J8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K8" s="3" t="s">
         <v>3</v>
       </c>
@@ -765,8 +769,11 @@
       <c r="O8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -806,8 +813,11 @@
       <c r="O9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -847,8 +857,11 @@
       <c r="O10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -864,32 +877,33 @@
       <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P11" s="3"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E12" s="3">
         <v>37200</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>5700</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>4500</v>
-      </c>
-      <c r="G12" s="3">
-        <v>15700</v>
       </c>
       <c r="H12" s="3">
         <v>15700</v>
       </c>
       <c r="I12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="J12" s="3">
         <v>6000</v>
       </c>
-      <c r="J12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K12" s="3" t="s">
         <v>3</v>
       </c>
@@ -905,8 +919,11 @@
       <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -946,8 +963,11 @@
       <c r="O13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -987,8 +1007,11 @@
       <c r="O14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1028,8 +1051,11 @@
       <c r="O15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1042,32 +1068,33 @@
       <c r="M16" s="3"/>
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
-    </row>
-    <row r="17" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P16" s="3"/>
+    </row>
+    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11900</v>
+      </c>
+      <c r="E17" s="3">
         <v>49400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>8900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>6400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>17200</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>18400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>7400</v>
       </c>
-      <c r="J17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1083,32 +1110,35 @@
       <c r="O17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="E18" s="3">
         <v>-44400</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-7100</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-5500</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-16300</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-14900</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6800</v>
       </c>
-      <c r="J18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1124,8 +1154,11 @@
       <c r="O18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1141,16 +1174,17 @@
       <c r="M19" s="3"/>
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
-    </row>
-    <row r="20" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P19" s="3"/>
+    </row>
+    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>400</v>
+      </c>
+      <c r="E20" s="3">
         <v>-800</v>
-      </c>
-      <c r="E20" s="3">
-        <v>-300</v>
       </c>
       <c r="F20" s="3">
         <v>-300</v>
@@ -1159,14 +1193,14 @@
         <v>-300</v>
       </c>
       <c r="H20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="I20" s="3">
         <v>-200</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-300</v>
       </c>
-      <c r="J20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1182,8 +1216,11 @@
       <c r="O20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1199,15 +1236,15 @@
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H21" s="3">
+      <c r="H21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I21" s="3">
         <v>-14700</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>-7000</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1260,11 @@
       <c r="O21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1240,15 +1280,15 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>300</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>100</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1264,32 +1304,35 @@
       <c r="O22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-10500</v>
+      </c>
+      <c r="E23" s="3">
         <v>-45200</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7400</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-5800</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-16600</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-15500</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7100</v>
       </c>
-      <c r="J23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1305,17 +1348,20 @@
       <c r="O23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>100</v>
+      </c>
+      <c r="E24" s="3">
         <v>200</v>
       </c>
-      <c r="E24" s="3">
-        <v>0</v>
-      </c>
       <c r="F24" s="3">
         <v>0</v>
       </c>
@@ -1328,8 +1374,8 @@
       <c r="I24" s="3">
         <v>0</v>
       </c>
-      <c r="J24" s="3" t="s">
-        <v>3</v>
+      <c r="J24" s="3">
+        <v>0</v>
       </c>
       <c r="K24" s="3" t="s">
         <v>3</v>
@@ -1346,8 +1392,11 @@
       <c r="O24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1387,32 +1436,35 @@
       <c r="O25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-45300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-5800</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-16600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-15500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-7100</v>
       </c>
-      <c r="J26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1428,32 +1480,35 @@
       <c r="O26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-45300</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-5800</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-16600</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-15500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-7100</v>
       </c>
-      <c r="J27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1469,8 +1524,11 @@
       <c r="O27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1510,8 +1568,11 @@
       <c r="O28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1551,8 +1612,11 @@
       <c r="O29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1592,8 +1656,11 @@
       <c r="O30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1633,16 +1700,19 @@
       <c r="O31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E32" s="3">
         <v>800</v>
-      </c>
-      <c r="E32" s="3">
-        <v>300</v>
       </c>
       <c r="F32" s="3">
         <v>300</v>
@@ -1651,14 +1721,14 @@
         <v>300</v>
       </c>
       <c r="H32" s="3">
+        <v>300</v>
+      </c>
+      <c r="I32" s="3">
         <v>200</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>300</v>
       </c>
-      <c r="J32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1674,32 +1744,35 @@
       <c r="O32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-45300</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-5800</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-16600</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-15500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7100</v>
       </c>
-      <c r="J33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1715,8 +1788,11 @@
       <c r="O33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1756,32 +1832,35 @@
       <c r="O34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-45300</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-5800</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-16600</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-15500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7100</v>
       </c>
-      <c r="J35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1797,37 +1876,40 @@
       <c r="O35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="J38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1843,8 +1925,11 @@
       <c r="O38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1860,8 +1945,9 @@
       <c r="M39" s="3"/>
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
-    </row>
-    <row r="40" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P39" s="3"/>
+    </row>
+    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1877,32 +1963,33 @@
       <c r="M40" s="3"/>
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
-    </row>
-    <row r="41" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P40" s="3"/>
+    </row>
+    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>124200</v>
+      </c>
+      <c r="E41" s="3">
         <v>14400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>122700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>128400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>134700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>14600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>8300</v>
       </c>
-      <c r="J41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1918,29 +2005,32 @@
       <c r="O41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
+      <c r="D42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E42" s="3">
         <v>118800</v>
       </c>
-      <c r="E42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I42" s="3">
         <v>1200</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
@@ -1959,32 +2049,35 @@
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3">
+      <c r="D43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E43" s="3">
         <v>700</v>
       </c>
-      <c r="E43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H43" s="3">
+      <c r="H43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I43" s="3">
         <v>1500</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>200</v>
       </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2000,8 +2093,11 @@
       <c r="O43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2041,32 +2137,35 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E45" s="3">
         <v>2600</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>5300</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4800</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>900</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>100</v>
       </c>
-      <c r="J45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2082,32 +2181,35 @@
       <c r="O45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>126700</v>
+      </c>
+      <c r="E46" s="3">
         <v>136500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>127900</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>133100</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>135800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>18200</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>8600</v>
       </c>
-      <c r="J46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2123,8 +2225,11 @@
       <c r="O46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2164,32 +2269,35 @@
       <c r="O47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3">
+      <c r="D48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E48" s="3">
         <v>1900</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="3">
+      <c r="H48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I48" s="3">
         <v>1500</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>1100</v>
       </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2205,8 +2313,11 @@
       <c r="O48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2246,8 +2357,11 @@
       <c r="O49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2287,8 +2401,11 @@
       <c r="O50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2328,31 +2445,34 @@
       <c r="O51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>2800</v>
+      </c>
+      <c r="E52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>2300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1900</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
-        <v>0</v>
-      </c>
-      <c r="J52" s="3" t="s">
-        <v>3</v>
+      <c r="J52" s="3">
+        <v>0</v>
       </c>
       <c r="K52" s="3" t="s">
         <v>3</v>
@@ -2369,8 +2489,11 @@
       <c r="O52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2410,32 +2533,35 @@
       <c r="O53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>129500</v>
+      </c>
+      <c r="E54" s="3">
         <v>139200</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>130200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>134900</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>137600</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>20500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>9800</v>
       </c>
-      <c r="J54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2451,8 +2577,11 @@
       <c r="O54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2468,8 +2597,9 @@
       <c r="M55" s="3"/>
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
-    </row>
-    <row r="56" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P55" s="3"/>
+    </row>
+    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2485,32 +2615,33 @@
       <c r="M56" s="3"/>
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
-    </row>
-    <row r="57" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P56" s="3"/>
+    </row>
+    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E57" s="3">
         <v>2600</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1800</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1500</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1300</v>
       </c>
-      <c r="J57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2526,32 +2657,35 @@
       <c r="O57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3">
+      <c r="D58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="E58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F58" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H58" s="3">
+      <c r="H58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I58" s="3">
         <v>200</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>100</v>
       </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2567,32 +2701,35 @@
       <c r="O58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>3000</v>
+      </c>
+      <c r="E59" s="3">
         <v>8400</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>2500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>1600</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>3100</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>6200</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>4600</v>
       </c>
-      <c r="J59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2608,32 +2745,35 @@
       <c r="O59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E60" s="3">
         <v>11200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>4200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>3400</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4600</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>7300</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>6000</v>
       </c>
-      <c r="J60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2649,32 +2789,35 @@
       <c r="O60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E61" s="3">
         <v>4600</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4100</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>3600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2200</v>
       </c>
-      <c r="J61" s="3">
-        <v>0</v>
-      </c>
       <c r="K61" s="3">
         <v>0</v>
       </c>
@@ -2690,32 +2833,35 @@
       <c r="O61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E62" s="3">
         <v>5000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>11200</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>12300</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>16200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>1700</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>3300</v>
       </c>
-      <c r="J62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2731,8 +2877,11 @@
       <c r="O62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2772,8 +2921,11 @@
       <c r="O63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2813,8 +2965,11 @@
       <c r="O64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2854,32 +3009,35 @@
       <c r="O65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21100</v>
+      </c>
+      <c r="E66" s="3">
         <v>20900</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>19400</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>24200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>12900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>11500</v>
       </c>
-      <c r="J66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2895,8 +3053,11 @@
       <c r="O66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2912,8 +3073,9 @@
       <c r="M67" s="3"/>
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
-    </row>
-    <row r="68" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P67" s="3"/>
+    </row>
+    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2953,8 +3115,11 @@
       <c r="O68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2994,8 +3159,11 @@
       <c r="O69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3035,8 +3203,11 @@
       <c r="O70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3076,32 +3247,35 @@
       <c r="O71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E72" s="3">
         <v>-73500</v>
       </c>
-      <c r="E72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="F72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I72" s="3">
         <v>-32500</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-18800</v>
       </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3117,8 +3291,11 @@
       <c r="O72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3158,8 +3335,11 @@
       <c r="O73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3199,8 +3379,11 @@
       <c r="O74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3240,32 +3423,35 @@
       <c r="O75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>108400</v>
+      </c>
+      <c r="E76" s="3">
         <v>118400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>110800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>115600</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>113500</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>7600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>-1700</v>
       </c>
-      <c r="J76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3281,8 +3467,11 @@
       <c r="O76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3322,37 +3511,40 @@
       <c r="O77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:15" x14ac:dyDescent="0.2">
+      <c r="P77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:15" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="K80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3368,32 +3560,35 @@
       <c r="O80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-10600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-45300</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-5800</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-16600</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-15500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7100</v>
       </c>
-      <c r="J81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3409,8 +3604,11 @@
       <c r="O81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3426,8 +3624,9 @@
       <c r="M82" s="3"/>
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
-    </row>
-    <row r="83" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P82" s="3"/>
+    </row>
+    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3461,14 +3660,17 @@
       <c r="M83" s="3">
         <v>0</v>
       </c>
-      <c r="N83" s="3" t="s">
-        <v>3</v>
+      <c r="N83" s="3">
+        <v>0</v>
       </c>
       <c r="O83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3508,8 +3710,11 @@
       <c r="O84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3549,8 +3754,11 @@
       <c r="O85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3590,8 +3798,11 @@
       <c r="O86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3631,8 +3842,11 @@
       <c r="O87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3672,8 +3886,11 @@
       <c r="O88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -3707,14 +3924,17 @@
       <c r="M89" s="3">
         <v>0</v>
       </c>
-      <c r="N89" s="3" t="s">
-        <v>3</v>
+      <c r="N89" s="3">
+        <v>0</v>
       </c>
       <c r="O89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3730,8 +3950,9 @@
       <c r="M90" s="3"/>
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
-    </row>
-    <row r="91" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P90" s="3"/>
+    </row>
+    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3765,14 +3986,17 @@
       <c r="M91" s="3">
         <v>0</v>
       </c>
-      <c r="N91" s="3" t="s">
-        <v>3</v>
+      <c r="N91" s="3">
+        <v>0</v>
       </c>
       <c r="O91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -3812,8 +4036,11 @@
       <c r="O92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -3853,8 +4080,11 @@
       <c r="O93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -3888,14 +4118,17 @@
       <c r="M94" s="3">
         <v>0</v>
       </c>
-      <c r="N94" s="3" t="s">
-        <v>3</v>
+      <c r="N94" s="3">
+        <v>0</v>
       </c>
       <c r="O94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -3911,8 +4144,9 @@
       <c r="M95" s="3"/>
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
-    </row>
-    <row r="96" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P95" s="3"/>
+    </row>
+    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -3952,8 +4186,11 @@
       <c r="O96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -3993,8 +4230,11 @@
       <c r="O97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4034,8 +4274,11 @@
       <c r="O98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4075,8 +4318,11 @@
       <c r="O99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4110,14 +4356,17 @@
       <c r="M100" s="3">
         <v>0</v>
       </c>
-      <c r="N100" s="3" t="s">
-        <v>3</v>
+      <c r="N100" s="3">
+        <v>0</v>
       </c>
       <c r="O100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -4151,14 +4400,17 @@
       <c r="M101" s="3">
         <v>0</v>
       </c>
-      <c r="N101" s="3" t="s">
-        <v>3</v>
+      <c r="N101" s="3">
+        <v>0</v>
       </c>
       <c r="O101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:15" x14ac:dyDescent="0.2">
+      <c r="P101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
@@ -4192,10 +4444,13 @@
       <c r="M102" s="3">
         <v>0</v>
       </c>
-      <c r="N102" s="3" t="s">
-        <v>3</v>
+      <c r="N102" s="3">
+        <v>0</v>
       </c>
       <c r="O102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="370" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:Q102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,54 +665,55 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L7" s="2" t="s">
         <v>3</v>
       </c>
@@ -728,35 +729,38 @@
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>500</v>
+      </c>
+      <c r="E8" s="3">
         <v>1000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>5000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1800</v>
-      </c>
-      <c r="G8" s="3">
-        <v>900</v>
       </c>
       <c r="H8" s="3">
         <v>900</v>
       </c>
       <c r="I8" s="3">
+        <v>900</v>
+      </c>
+      <c r="J8" s="3">
         <v>3500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>600</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L8" s="3" t="s">
         <v>3</v>
       </c>
@@ -772,8 +776,11 @@
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -816,8 +823,11 @@
       <c r="P9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -860,8 +870,11 @@
       <c r="P10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -878,35 +891,36 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>8300</v>
+      </c>
+      <c r="E12" s="3">
         <v>7600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>37200</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>5700</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>4500</v>
-      </c>
-      <c r="H12" s="3">
-        <v>15700</v>
       </c>
       <c r="I12" s="3">
         <v>15700</v>
       </c>
       <c r="J12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="K12" s="3">
         <v>6000</v>
       </c>
-      <c r="K12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L12" s="3" t="s">
         <v>3</v>
       </c>
@@ -922,8 +936,11 @@
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -966,8 +983,11 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1010,8 +1030,11 @@
       <c r="P14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1054,8 +1077,11 @@
       <c r="P15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1069,35 +1095,36 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+    </row>
+    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>11400</v>
+      </c>
+      <c r="E17" s="3">
         <v>11900</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>49400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>8900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>6400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>17200</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>18400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>7400</v>
       </c>
-      <c r="K17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1113,8 +1140,11 @@
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -1122,26 +1152,26 @@
         <v>-10900</v>
       </c>
       <c r="E18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="F18" s="3">
         <v>-44400</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-7100</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-5500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-16300</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-14900</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6800</v>
       </c>
-      <c r="K18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1157,8 +1187,11 @@
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1175,19 +1208,20 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+    </row>
+    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>400</v>
+        <v>3100</v>
       </c>
       <c r="E20" s="3">
+        <v>1100</v>
+      </c>
+      <c r="F20" s="3">
         <v>-800</v>
-      </c>
-      <c r="F20" s="3">
-        <v>-300</v>
       </c>
       <c r="G20" s="3">
         <v>-300</v>
@@ -1196,14 +1230,14 @@
         <v>-300</v>
       </c>
       <c r="I20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="J20" s="3">
         <v>-200</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-300</v>
       </c>
-      <c r="K20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1219,16 +1253,19 @@
       <c r="P20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E21" s="3" t="s">
-        <v>3</v>
+      <c r="D21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-9600</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>3</v>
@@ -1239,15 +1276,15 @@
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I21" s="3">
+      <c r="I21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J21" s="3">
         <v>-14700</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-7000</v>
       </c>
-      <c r="K21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1263,16 +1300,19 @@
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>3</v>
+      <c r="D22" s="3">
+        <v>100</v>
+      </c>
+      <c r="E22" s="3">
+        <v>200</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>3</v>
@@ -1283,15 +1323,15 @@
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J22" s="3">
         <v>300</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>100</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1307,35 +1347,38 @@
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>-10500</v>
+        <v>-7800</v>
       </c>
       <c r="E23" s="3">
+        <v>-9900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-45200</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7400</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-5800</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-16600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-15500</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7100</v>
       </c>
-      <c r="K23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1351,8 +1394,11 @@
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1360,11 +1406,11 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
+        <v>100</v>
+      </c>
+      <c r="F24" s="3">
         <v>200</v>
       </c>
-      <c r="F24" s="3">
-        <v>0</v>
-      </c>
       <c r="G24" s="3">
         <v>0</v>
       </c>
@@ -1377,8 +1423,8 @@
       <c r="J24" s="3">
         <v>0</v>
       </c>
-      <c r="K24" s="3" t="s">
-        <v>3</v>
+      <c r="K24" s="3">
+        <v>0</v>
       </c>
       <c r="L24" s="3" t="s">
         <v>3</v>
@@ -1395,8 +1441,11 @@
       <c r="P24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1439,35 +1488,38 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="E26" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-45300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-7500</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-5800</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-16600</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-15500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-7100</v>
       </c>
-      <c r="K26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1483,35 +1535,38 @@
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="E27" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-45300</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7500</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-5800</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-16600</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-15500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-7100</v>
       </c>
-      <c r="K27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1527,8 +1582,11 @@
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1571,8 +1629,11 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1615,8 +1676,11 @@
       <c r="P29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1659,8 +1723,11 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1703,19 +1770,22 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>-400</v>
+        <v>-3100</v>
       </c>
       <c r="E32" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="F32" s="3">
         <v>800</v>
-      </c>
-      <c r="F32" s="3">
-        <v>300</v>
       </c>
       <c r="G32" s="3">
         <v>300</v>
@@ -1724,14 +1794,14 @@
         <v>300</v>
       </c>
       <c r="I32" s="3">
+        <v>300</v>
+      </c>
+      <c r="J32" s="3">
         <v>200</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>300</v>
       </c>
-      <c r="K32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1747,35 +1817,38 @@
       <c r="P32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="E33" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-45300</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-5800</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-16600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-15500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7100</v>
       </c>
-      <c r="K33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1791,8 +1864,11 @@
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1835,35 +1911,38 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="E35" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-45300</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-5800</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-16600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-15500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7100</v>
       </c>
-      <c r="K35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1879,40 +1958,43 @@
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1928,8 +2010,11 @@
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1946,8 +2031,9 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+    </row>
+    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1964,35 +2050,36 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+    </row>
+    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
-        <v>124200</v>
+        <v>75900</v>
       </c>
       <c r="E41" s="3">
+        <v>85700</v>
+      </c>
+      <c r="F41" s="3">
         <v>14400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>122700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>128400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>134700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>14600</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>8300</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2008,32 +2095,35 @@
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3" t="s">
-        <v>3</v>
+      <c r="D42" s="3">
+        <v>34800</v>
       </c>
       <c r="E42" s="3">
+        <v>38400</v>
+      </c>
+      <c r="F42" s="3">
         <v>118800</v>
       </c>
-      <c r="F42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I42" s="3">
+      <c r="I42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J42" s="3">
         <v>1200</v>
       </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2052,35 +2142,38 @@
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="D43" s="3" t="s">
-        <v>3</v>
+      <c r="D43" s="3">
+        <v>800</v>
       </c>
       <c r="E43" s="3">
+        <v>900</v>
+      </c>
+      <c r="F43" s="3">
         <v>700</v>
       </c>
-      <c r="F43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I43" s="3">
+      <c r="I43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J43" s="3">
         <v>1500</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>200</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2096,8 +2189,11 @@
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2140,35 +2236,38 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>2500</v>
+        <v>1200</v>
       </c>
       <c r="E45" s="3">
+        <v>1600</v>
+      </c>
+      <c r="F45" s="3">
         <v>2600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>5300</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>4800</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>900</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>100</v>
       </c>
-      <c r="K45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2184,35 +2283,38 @@
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>112800</v>
+      </c>
+      <c r="E46" s="3">
         <v>126700</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>136500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>127900</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>133100</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>135800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>18200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>8600</v>
       </c>
-      <c r="K46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2228,8 +2330,11 @@
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2272,35 +2377,38 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D48" s="3" t="s">
-        <v>3</v>
+      <c r="D48" s="3">
+        <v>1800</v>
       </c>
       <c r="E48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="F48" s="3">
         <v>1900</v>
       </c>
-      <c r="F48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I48" s="3">
+      <c r="I48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J48" s="3">
         <v>1500</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1100</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2316,8 +2424,11 @@
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2360,8 +2471,11 @@
       <c r="P49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2404,8 +2518,11 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2448,34 +2565,37 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2800</v>
+        <v>700</v>
       </c>
       <c r="E52" s="3">
         <v>800</v>
       </c>
       <c r="F52" s="3">
+        <v>800</v>
+      </c>
+      <c r="G52" s="3">
         <v>2300</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>1800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1900</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="J52" s="3">
-        <v>0</v>
-      </c>
-      <c r="K52" s="3" t="s">
-        <v>3</v>
+      <c r="K52" s="3">
+        <v>0</v>
       </c>
       <c r="L52" s="3" t="s">
         <v>3</v>
@@ -2492,8 +2612,11 @@
       <c r="P52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2536,35 +2659,38 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>115300</v>
+      </c>
+      <c r="E54" s="3">
         <v>129500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>139200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>130200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>134900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>137600</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>20500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>9800</v>
       </c>
-      <c r="K54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2580,8 +2706,11 @@
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2598,8 +2727,9 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+    </row>
+    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2616,35 +2746,36 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+    </row>
+    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E57" s="3">
         <v>2700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2600</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1500</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>900</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1300</v>
       </c>
-      <c r="K57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2660,19 +2791,22 @@
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D58" s="3" t="s">
-        <v>3</v>
+      <c r="D58" s="3">
+        <v>300</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
       </c>
-      <c r="F58" s="3" t="s">
-        <v>3</v>
+      <c r="F58" s="3">
+        <v>300</v>
       </c>
       <c r="G58" s="3" t="s">
         <v>3</v>
@@ -2680,15 +2814,15 @@
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J58" s="3">
         <v>200</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>100</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2704,35 +2838,38 @@
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>3000</v>
+        <v>13500</v>
       </c>
       <c r="E59" s="3">
+        <v>13300</v>
+      </c>
+      <c r="F59" s="3">
         <v>8400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>2500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>1600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>3100</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>6200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>4600</v>
       </c>
-      <c r="K59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2748,35 +2885,38 @@
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5600</v>
+        <v>16700</v>
       </c>
       <c r="E60" s="3">
+        <v>16300</v>
+      </c>
+      <c r="F60" s="3">
         <v>11200</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>4200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>3400</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4600</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>7300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>6000</v>
       </c>
-      <c r="K60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2792,35 +2932,38 @@
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
-        <v>5100</v>
+        <v>4500</v>
       </c>
       <c r="E61" s="3">
+        <v>4800</v>
+      </c>
+      <c r="F61" s="3">
         <v>4600</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4100</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>3600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2200</v>
       </c>
-      <c r="K61" s="3">
-        <v>0</v>
-      </c>
       <c r="L61" s="3">
         <v>0</v>
       </c>
@@ -2836,35 +2979,38 @@
       <c r="P61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="E62" s="3">
+        <v>0</v>
+      </c>
+      <c r="F62" s="3">
         <v>5000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>11200</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>12300</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>16200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>1700</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>3300</v>
       </c>
-      <c r="K62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2880,8 +3026,11 @@
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2924,8 +3073,11 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2968,8 +3120,11 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3012,35 +3167,38 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E66" s="3">
         <v>21100</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>20900</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>19400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19300</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>24200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>12900</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>11500</v>
       </c>
-      <c r="K66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3056,8 +3214,11 @@
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3074,8 +3235,9 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+    </row>
+    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3118,8 +3280,11 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3162,8 +3327,11 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3206,8 +3374,11 @@
       <c r="P70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3250,35 +3421,38 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>3</v>
+      <c r="D72" s="3">
+        <v>-86800</v>
       </c>
       <c r="E72" s="3">
+        <v>-81800</v>
+      </c>
+      <c r="F72" s="3">
         <v>-73500</v>
       </c>
-      <c r="F72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="I72" s="3">
+      <c r="I72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J72" s="3">
         <v>-32500</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-18800</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3294,8 +3468,11 @@
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3338,8 +3515,11 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3382,8 +3562,11 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3426,35 +3609,38 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>94000</v>
+      </c>
+      <c r="E76" s="3">
         <v>108400</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>118400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>110800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>115600</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>113500</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>7600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>-1700</v>
       </c>
-      <c r="K76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3470,8 +3656,11 @@
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3514,40 +3703,43 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="L80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3563,35 +3755,38 @@
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
-        <v>-10600</v>
+        <v>-7900</v>
       </c>
       <c r="E81" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-45300</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-5800</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-16600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-15500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7100</v>
       </c>
-      <c r="K81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3607,8 +3802,11 @@
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3625,31 +3823,32 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+    </row>
+    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="E83" s="3">
-        <v>0</v>
-      </c>
-      <c r="F83" s="3">
-        <v>0</v>
-      </c>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
-        <v>0</v>
-      </c>
-      <c r="I83" s="3">
-        <v>0</v>
-      </c>
-      <c r="J83" s="3">
-        <v>0</v>
+        <v>200</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K83" s="3">
         <v>0</v>
@@ -3663,14 +3862,17 @@
       <c r="N83" s="3">
         <v>0</v>
       </c>
-      <c r="O83" s="3" t="s">
-        <v>3</v>
+      <c r="O83" s="3">
+        <v>0</v>
       </c>
       <c r="P83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3713,8 +3915,11 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3757,8 +3962,11 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3801,8 +4009,11 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3845,8 +4056,11 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3889,31 +4103,34 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>0</v>
+        <v>-9700</v>
       </c>
       <c r="E89" s="3">
-        <v>0</v>
-      </c>
-      <c r="F89" s="3">
-        <v>0</v>
-      </c>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
-        <v>0</v>
-      </c>
-      <c r="I89" s="3">
-        <v>0</v>
-      </c>
-      <c r="J89" s="3">
-        <v>0</v>
+        <v>-7600</v>
+      </c>
+      <c r="F89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K89" s="3">
         <v>0</v>
@@ -3927,14 +4144,17 @@
       <c r="N89" s="3">
         <v>0</v>
       </c>
-      <c r="O89" s="3" t="s">
-        <v>3</v>
+      <c r="O89" s="3">
+        <v>0</v>
       </c>
       <c r="P89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3951,8 +4171,9 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+    </row>
+    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -3960,22 +4181,22 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
-        <v>0</v>
-      </c>
-      <c r="I91" s="3">
-        <v>0</v>
-      </c>
-      <c r="J91" s="3">
-        <v>0</v>
+        <v>-300</v>
+      </c>
+      <c r="F91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K91" s="3">
         <v>0</v>
@@ -3989,14 +4210,17 @@
       <c r="N91" s="3">
         <v>0</v>
       </c>
-      <c r="O91" s="3" t="s">
-        <v>3</v>
+      <c r="O91" s="3">
+        <v>0</v>
       </c>
       <c r="P91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4039,8 +4263,11 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4083,31 +4310,34 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
-        <v>0</v>
+        <v>3500</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
-      </c>
-      <c r="F94" s="3">
-        <v>0</v>
-      </c>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
-        <v>0</v>
-      </c>
-      <c r="I94" s="3">
-        <v>0</v>
-      </c>
-      <c r="J94" s="3">
-        <v>0</v>
+        <v>3400</v>
+      </c>
+      <c r="F94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K94" s="3">
         <v>0</v>
@@ -4121,14 +4351,17 @@
       <c r="N94" s="3">
         <v>0</v>
       </c>
-      <c r="O94" s="3" t="s">
-        <v>3</v>
+      <c r="O94" s="3">
+        <v>0</v>
       </c>
       <c r="P94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4145,8 +4378,9 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+    </row>
+    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4189,8 +4423,11 @@
       <c r="P96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4233,8 +4470,11 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4277,8 +4517,11 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4321,8 +4564,11 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4330,22 +4576,22 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
-      </c>
-      <c r="F100" s="3">
-        <v>0</v>
-      </c>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
-        <v>0</v>
-      </c>
-      <c r="I100" s="3">
-        <v>0</v>
-      </c>
-      <c r="J100" s="3">
-        <v>0</v>
+        <v>300</v>
+      </c>
+      <c r="F100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K100" s="3">
         <v>0</v>
@@ -4359,37 +4605,40 @@
       <c r="N100" s="3">
         <v>0</v>
       </c>
-      <c r="O100" s="3" t="s">
-        <v>3</v>
+      <c r="O100" s="3">
+        <v>0</v>
       </c>
       <c r="P100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>-3700</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
-      </c>
-      <c r="F101" s="3">
-        <v>0</v>
-      </c>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
-        <v>0</v>
-      </c>
-      <c r="I101" s="3">
-        <v>0</v>
-      </c>
-      <c r="J101" s="3">
-        <v>0</v>
+        <v>-1200</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K101" s="3">
         <v>0</v>
@@ -4403,37 +4652,40 @@
       <c r="N101" s="3">
         <v>0</v>
       </c>
-      <c r="O101" s="3" t="s">
-        <v>3</v>
+      <c r="O101" s="3">
+        <v>0</v>
       </c>
       <c r="P101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
-        <v>0</v>
+        <v>-9900</v>
       </c>
       <c r="E102" s="3">
-        <v>0</v>
-      </c>
-      <c r="F102" s="3">
-        <v>0</v>
-      </c>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
-        <v>0</v>
-      </c>
-      <c r="I102" s="3">
-        <v>0</v>
-      </c>
-      <c r="J102" s="3">
-        <v>0</v>
+        <v>-5100</v>
+      </c>
+      <c r="F102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="K102" s="3">
         <v>0</v>
@@ -4447,10 +4699,13 @@
       <c r="N102" s="3">
         <v>0</v>
       </c>
-      <c r="O102" s="3" t="s">
-        <v>3</v>
+      <c r="O102" s="3">
+        <v>0</v>
       </c>
       <c r="P102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,58 +665,59 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="17" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M7" s="2" t="s">
         <v>3</v>
       </c>
@@ -732,38 +733,41 @@
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>15300</v>
+      </c>
+      <c r="E8" s="3">
         <v>500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>5000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1800</v>
-      </c>
-      <c r="H8" s="3">
-        <v>900</v>
       </c>
       <c r="I8" s="3">
         <v>900</v>
       </c>
       <c r="J8" s="3">
+        <v>900</v>
+      </c>
+      <c r="K8" s="3">
         <v>3500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>600</v>
       </c>
-      <c r="L8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M8" s="3" t="s">
         <v>3</v>
       </c>
@@ -779,8 +783,11 @@
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -826,8 +833,11 @@
       <c r="Q9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -873,8 +883,11 @@
       <c r="Q10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -892,38 +905,39 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>13700</v>
+      </c>
+      <c r="E12" s="3">
         <v>8300</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>7600</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>37200</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>5700</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>4500</v>
-      </c>
-      <c r="I12" s="3">
-        <v>15700</v>
       </c>
       <c r="J12" s="3">
         <v>15700</v>
       </c>
       <c r="K12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="L12" s="3">
         <v>6000</v>
       </c>
-      <c r="L12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M12" s="3" t="s">
         <v>3</v>
       </c>
@@ -939,8 +953,11 @@
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -986,8 +1003,11 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1033,8 +1053,11 @@
       <c r="Q14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1080,8 +1103,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1096,38 +1122,39 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>16800</v>
+      </c>
+      <c r="E17" s="3">
         <v>11400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11900</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>49400</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>8900</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>6400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>17200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>18400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>7400</v>
       </c>
-      <c r="L17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1143,38 +1170,41 @@
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-10900</v>
+        <v>-1500</v>
       </c>
       <c r="E18" s="3">
         <v>-10900</v>
       </c>
       <c r="F18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="G18" s="3">
         <v>-44400</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-7100</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-5500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-16300</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-14900</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6800</v>
       </c>
-      <c r="L18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1190,8 +1220,11 @@
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1209,22 +1242,23 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>2500</v>
+      </c>
+      <c r="E20" s="3">
         <v>3100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-800</v>
-      </c>
-      <c r="G20" s="3">
-        <v>-300</v>
       </c>
       <c r="H20" s="3">
         <v>-300</v>
@@ -1233,14 +1267,14 @@
         <v>-300</v>
       </c>
       <c r="J20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="K20" s="3">
         <v>-200</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-300</v>
       </c>
-      <c r="L20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1256,20 +1290,23 @@
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>1200</v>
+      </c>
+      <c r="E21" s="3">
         <v>-7600</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-9600</v>
       </c>
-      <c r="F21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1279,15 +1316,15 @@
       <c r="I21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K21" s="3">
         <v>-14700</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-7000</v>
       </c>
-      <c r="L21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1303,20 +1340,23 @@
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="3">
         <v>100</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>200</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1326,15 +1366,15 @@
       <c r="I22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K22" s="3">
         <v>300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>100</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1350,38 +1390,41 @@
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-7800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-9900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-45200</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-7400</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-5800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-16600</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-15500</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7100</v>
       </c>
-      <c r="L23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,23 +1440,26 @@
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="E24" s="3">
         <v>100</v>
       </c>
       <c r="F24" s="3">
+        <v>100</v>
+      </c>
+      <c r="G24" s="3">
         <v>200</v>
       </c>
-      <c r="G24" s="3">
-        <v>0</v>
-      </c>
       <c r="H24" s="3">
         <v>0</v>
       </c>
@@ -1426,8 +1472,8 @@
       <c r="K24" s="3">
         <v>0</v>
       </c>
-      <c r="L24" s="3" t="s">
-        <v>3</v>
+      <c r="L24" s="3">
+        <v>0</v>
       </c>
       <c r="M24" s="3" t="s">
         <v>3</v>
@@ -1444,8 +1490,11 @@
       <c r="Q24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1491,38 +1540,41 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-7900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-10000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-45300</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-7500</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-5800</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-16600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-15500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7100</v>
       </c>
-      <c r="L26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1538,38 +1590,41 @@
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-7900</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-10000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-45300</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-7500</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-5800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16600</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-15500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7100</v>
       </c>
-      <c r="L27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1585,8 +1640,11 @@
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1632,8 +1690,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1679,8 +1740,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1726,8 +1790,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1773,22 +1840,25 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E32" s="3">
         <v>-3100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>800</v>
-      </c>
-      <c r="G32" s="3">
-        <v>300</v>
       </c>
       <c r="H32" s="3">
         <v>300</v>
@@ -1797,14 +1867,14 @@
         <v>300</v>
       </c>
       <c r="J32" s="3">
+        <v>300</v>
+      </c>
+      <c r="K32" s="3">
         <v>200</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>300</v>
       </c>
-      <c r="L32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1820,38 +1890,41 @@
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-7900</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-10000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-45300</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-7500</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-5800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16600</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-15500</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7100</v>
       </c>
-      <c r="L33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1867,8 +1940,11 @@
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1914,38 +1990,41 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-7900</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-10000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-45300</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-7500</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-5800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16600</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-15500</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7100</v>
       </c>
-      <c r="L35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1961,43 +2040,46 @@
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2013,8 +2095,11 @@
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2032,8 +2117,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2051,38 +2137,39 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>64300</v>
+      </c>
+      <c r="E41" s="3">
         <v>75900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>85700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>14400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>122700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>128400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>134700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>8300</v>
       </c>
-      <c r="L41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2098,35 +2185,38 @@
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>28400</v>
+      </c>
+      <c r="E42" s="3">
         <v>34800</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>38400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>118800</v>
       </c>
-      <c r="G42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="3">
+      <c r="J42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K42" s="3">
         <v>1200</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2145,38 +2235,41 @@
       <c r="Q42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E43" s="3">
         <v>800</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>900</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>700</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J43" s="3">
+      <c r="J43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K43" s="3">
         <v>1500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>200</v>
       </c>
-      <c r="L43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2192,8 +2285,11 @@
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2239,38 +2335,41 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1200</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1600</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>2600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>5300</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>4800</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>900</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>100</v>
       </c>
-      <c r="L45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2286,38 +2385,41 @@
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>147600</v>
+      </c>
+      <c r="E46" s="3">
         <v>112800</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>126700</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>136500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>127900</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>133100</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>135800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>18200</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>8600</v>
       </c>
-      <c r="L46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2333,8 +2435,11 @@
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2380,38 +2485,41 @@
       <c r="Q47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E48" s="3">
         <v>1800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>1900</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="3">
+      <c r="J48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K48" s="3">
         <v>1500</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>1100</v>
       </c>
-      <c r="L48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2427,8 +2535,11 @@
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2474,8 +2585,11 @@
       <c r="Q49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2521,8 +2635,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2568,37 +2685,40 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
         <v>700</v>
-      </c>
-      <c r="E52" s="3">
-        <v>800</v>
       </c>
       <c r="F52" s="3">
         <v>800</v>
       </c>
       <c r="G52" s="3">
+        <v>800</v>
+      </c>
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1900</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>800</v>
       </c>
-      <c r="K52" s="3">
-        <v>0</v>
-      </c>
-      <c r="L52" s="3" t="s">
-        <v>3</v>
+      <c r="L52" s="3">
+        <v>0</v>
       </c>
       <c r="M52" s="3" t="s">
         <v>3</v>
@@ -2615,8 +2735,11 @@
       <c r="Q52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2662,38 +2785,41 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>149900</v>
+      </c>
+      <c r="E54" s="3">
         <v>115300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>129500</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>139200</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>130200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>134900</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>137600</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>20500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>9800</v>
       </c>
-      <c r="L54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2709,8 +2835,11 @@
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2728,8 +2857,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2747,38 +2877,39 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>7800</v>
+      </c>
+      <c r="E57" s="3">
         <v>2900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2600</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1800</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1500</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1300</v>
       </c>
-      <c r="L57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2794,8 +2925,11 @@
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2808,8 +2942,8 @@
       <c r="F58" s="3">
         <v>300</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
+      <c r="G58" s="3">
+        <v>300</v>
       </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
@@ -2817,15 +2951,15 @@
       <c r="I58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J58" s="3">
+      <c r="J58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K58" s="3">
         <v>200</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>100</v>
       </c>
-      <c r="L58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2841,38 +2975,41 @@
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>9800</v>
+      </c>
+      <c r="E59" s="3">
         <v>13500</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13300</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>8400</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>2500</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>1600</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>3100</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>6200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>4600</v>
       </c>
-      <c r="L59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M59" s="3" t="s">
         <v>3</v>
       </c>
@@ -2888,38 +3025,41 @@
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>17900</v>
+      </c>
+      <c r="E60" s="3">
         <v>16700</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16300</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>11200</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>4200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>3400</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>4600</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>7300</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>6000</v>
       </c>
-      <c r="L60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2935,38 +3075,41 @@
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4600</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4100</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>3600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2200</v>
       </c>
-      <c r="L61" s="3">
-        <v>0</v>
-      </c>
       <c r="M61" s="3">
         <v>0</v>
       </c>
@@ -2982,38 +3125,41 @@
       <c r="Q61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="E62" s="3">
         <v>0</v>
       </c>
       <c r="F62" s="3">
+        <v>0</v>
+      </c>
+      <c r="G62" s="3">
         <v>5000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>11200</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>12300</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>16200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>1700</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>3300</v>
       </c>
-      <c r="L62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3029,8 +3175,11 @@
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3076,8 +3225,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3123,8 +3275,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3170,38 +3325,41 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57200</v>
+      </c>
+      <c r="E66" s="3">
         <v>21300</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>20900</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>19400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>24200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>12900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>11500</v>
       </c>
-      <c r="L66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3217,8 +3375,11 @@
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3236,8 +3397,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3283,8 +3445,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3330,8 +3495,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3377,8 +3545,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3424,38 +3595,41 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-85000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-86800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-81800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-73500</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J72" s="3">
+      <c r="J72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K72" s="3">
         <v>-32500</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-18800</v>
       </c>
-      <c r="L72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3471,8 +3645,11 @@
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3518,8 +3695,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3565,8 +3745,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3612,38 +3795,41 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>92700</v>
+      </c>
+      <c r="E76" s="3">
         <v>94000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>108400</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>118400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>110800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>115600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>113500</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>7600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>-1700</v>
       </c>
-      <c r="L76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3659,8 +3845,11 @@
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3706,43 +3895,46 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="E80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="M80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3758,38 +3950,41 @@
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-7900</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-10000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-45300</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-7500</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-5800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16600</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-15500</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7100</v>
       </c>
-      <c r="L81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M81" s="3" t="s">
         <v>3</v>
       </c>
@@ -3805,8 +4000,11 @@
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3824,8 +4022,9 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -3835,8 +4034,8 @@
       <c r="E83" s="3">
         <v>200</v>
       </c>
-      <c r="F83" s="3" t="s">
-        <v>3</v>
+      <c r="F83" s="3">
+        <v>200</v>
       </c>
       <c r="G83" s="3" t="s">
         <v>3</v>
@@ -3850,8 +4049,8 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3">
-        <v>0</v>
+      <c r="K83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L83" s="3">
         <v>0</v>
@@ -3865,14 +4064,17 @@
       <c r="O83" s="3">
         <v>0</v>
       </c>
-      <c r="P83" s="3" t="s">
-        <v>3</v>
+      <c r="P83" s="3">
+        <v>0</v>
       </c>
       <c r="Q83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3918,8 +4120,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3965,8 +4170,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4012,8 +4220,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4059,8 +4270,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4106,20 +4320,23 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="E89" s="3">
         <v>-9700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-7600</v>
       </c>
-      <c r="F89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4132,8 +4349,8 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3">
-        <v>0</v>
+      <c r="K89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L89" s="3">
         <v>0</v>
@@ -4147,14 +4364,17 @@
       <c r="O89" s="3">
         <v>0</v>
       </c>
-      <c r="P89" s="3" t="s">
-        <v>3</v>
+      <c r="P89" s="3">
+        <v>0</v>
       </c>
       <c r="Q89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4172,8 +4392,9 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -4181,11 +4402,11 @@
         <v>0</v>
       </c>
       <c r="E91" s="3">
+        <v>0</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="F91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
       </c>
@@ -4198,8 +4419,8 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3">
-        <v>0</v>
+      <c r="K91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L91" s="3">
         <v>0</v>
@@ -4213,14 +4434,17 @@
       <c r="O91" s="3">
         <v>0</v>
       </c>
-      <c r="P91" s="3" t="s">
-        <v>3</v>
+      <c r="P91" s="3">
+        <v>0</v>
       </c>
       <c r="Q91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4266,8 +4490,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4313,20 +4540,23 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>6600</v>
+      </c>
+      <c r="E94" s="3">
         <v>3500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3400</v>
       </c>
-      <c r="F94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4339,8 +4569,8 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3">
-        <v>0</v>
+      <c r="K94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L94" s="3">
         <v>0</v>
@@ -4354,14 +4584,17 @@
       <c r="O94" s="3">
         <v>0</v>
       </c>
-      <c r="P94" s="3" t="s">
-        <v>3</v>
+      <c r="P94" s="3">
+        <v>0</v>
       </c>
       <c r="Q94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4379,8 +4612,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4426,8 +4660,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4473,8 +4710,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4520,8 +4760,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4567,8 +4810,11 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4576,11 +4822,11 @@
         <v>0</v>
       </c>
       <c r="E100" s="3">
+        <v>0</v>
+      </c>
+      <c r="F100" s="3">
         <v>300</v>
       </c>
-      <c r="F100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4593,8 +4839,8 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3">
-        <v>0</v>
+      <c r="K100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L100" s="3">
         <v>0</v>
@@ -4608,26 +4854,29 @@
       <c r="O100" s="3">
         <v>0</v>
       </c>
-      <c r="P100" s="3" t="s">
-        <v>3</v>
+      <c r="P100" s="3">
+        <v>0</v>
       </c>
       <c r="Q100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-3800</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3700</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1200</v>
       </c>
-      <c r="F101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4640,8 +4889,8 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3">
-        <v>0</v>
+      <c r="K101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L101" s="3">
         <v>0</v>
@@ -4655,26 +4904,29 @@
       <c r="O101" s="3">
         <v>0</v>
       </c>
-      <c r="P101" s="3" t="s">
-        <v>3</v>
+      <c r="P101" s="3">
+        <v>0</v>
       </c>
       <c r="Q101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11500</v>
+      </c>
+      <c r="E102" s="3">
         <v>-9900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-5100</v>
       </c>
-      <c r="F102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4687,8 +4939,8 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3">
-        <v>0</v>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="L102" s="3">
         <v>0</v>
@@ -4702,10 +4954,13 @@
       <c r="O102" s="3">
         <v>0</v>
       </c>
-      <c r="P102" s="3" t="s">
-        <v>3</v>
+      <c r="P102" s="3">
+        <v>0</v>
       </c>
       <c r="Q102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="R102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,62 +665,62 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="18" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
         <v>44834</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N7" s="2" t="s">
         <v>3</v>
       </c>
@@ -736,41 +736,44 @@
       <c r="R7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E8" s="3">
         <v>15300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>5000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1800</v>
-      </c>
-      <c r="I8" s="3">
-        <v>900</v>
       </c>
       <c r="J8" s="3">
         <v>900</v>
       </c>
       <c r="K8" s="3">
+        <v>900</v>
+      </c>
+      <c r="L8" s="3">
         <v>3500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>600</v>
       </c>
-      <c r="M8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N8" s="3" t="s">
         <v>3</v>
       </c>
@@ -786,8 +789,11 @@
       <c r="R8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -836,8 +842,11 @@
       <c r="R9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -886,8 +895,11 @@
       <c r="R10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -906,41 +918,42 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E12" s="3">
         <v>13700</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>8300</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>7600</v>
       </c>
-      <c r="G12" s="3">
+      <c r="H12" s="3">
         <v>37200</v>
       </c>
-      <c r="H12" s="3">
+      <c r="I12" s="3">
         <v>5700</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>4500</v>
-      </c>
-      <c r="J12" s="3">
-        <v>15700</v>
       </c>
       <c r="K12" s="3">
         <v>15700</v>
       </c>
       <c r="L12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="M12" s="3">
         <v>6000</v>
       </c>
-      <c r="M12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N12" s="3" t="s">
         <v>3</v>
       </c>
@@ -956,8 +969,11 @@
       <c r="R12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1006,8 +1022,11 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1056,8 +1075,11 @@
       <c r="R14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1106,8 +1128,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1123,41 +1148,42 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>14200</v>
+      </c>
+      <c r="E17" s="3">
         <v>16800</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>11400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>11900</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>49400</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>8900</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>6400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>17200</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>18400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>7400</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1173,41 +1199,44 @@
       <c r="R17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-11600</v>
+      </c>
+      <c r="E18" s="3">
         <v>-1500</v>
-      </c>
-      <c r="E18" s="3">
-        <v>-10900</v>
       </c>
       <c r="F18" s="3">
         <v>-10900</v>
       </c>
       <c r="G18" s="3">
+        <v>-10900</v>
+      </c>
+      <c r="H18" s="3">
         <v>-44400</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-7100</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-5500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-16300</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-14900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6800</v>
       </c>
-      <c r="M18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1223,8 +1252,11 @@
       <c r="R18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1243,25 +1275,26 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-3300</v>
+      </c>
+      <c r="E20" s="3">
         <v>2500</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>3100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-800</v>
-      </c>
-      <c r="H20" s="3">
-        <v>-300</v>
       </c>
       <c r="I20" s="3">
         <v>-300</v>
@@ -1270,14 +1303,14 @@
         <v>-300</v>
       </c>
       <c r="K20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="L20" s="3">
         <v>-200</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="M20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1293,23 +1326,26 @@
       <c r="R20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14700</v>
+      </c>
+      <c r="E21" s="3">
         <v>1200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-7600</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-9600</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1319,15 +1355,15 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3">
         <v>-14700</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-7000</v>
       </c>
-      <c r="M21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1343,23 +1379,26 @@
       <c r="R21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="3">
         <v>100</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>200</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1369,15 +1408,15 @@
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L22" s="3">
         <v>300</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>100</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1393,41 +1432,44 @@
       <c r="R22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-14900</v>
+      </c>
+      <c r="E23" s="3">
         <v>1000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-7800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-9900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-45200</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-7400</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-5800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-16600</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-15500</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-7100</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1443,26 +1485,29 @@
       <c r="R23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>100</v>
+      </c>
+      <c r="H24" s="3">
         <v>200</v>
       </c>
-      <c r="H24" s="3">
-        <v>0</v>
-      </c>
       <c r="I24" s="3">
         <v>0</v>
       </c>
@@ -1475,8 +1520,8 @@
       <c r="L24" s="3">
         <v>0</v>
       </c>
-      <c r="M24" s="3" t="s">
-        <v>3</v>
+      <c r="M24" s="3">
+        <v>0</v>
       </c>
       <c r="N24" s="3" t="s">
         <v>3</v>
@@ -1493,8 +1538,11 @@
       <c r="R24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1543,41 +1591,44 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E26" s="3">
         <v>1000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-7900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-10000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-45300</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-7500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-5800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-16600</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-15500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-7100</v>
       </c>
-      <c r="M26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1593,41 +1644,44 @@
       <c r="R26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E27" s="3">
         <v>1000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-7900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-10000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-45300</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-7500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-5800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-16600</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-15500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-7100</v>
       </c>
-      <c r="M27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1643,8 +1697,11 @@
       <c r="R27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1693,8 +1750,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1743,8 +1803,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1793,8 +1856,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1843,25 +1909,28 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-2500</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-3100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>800</v>
-      </c>
-      <c r="H32" s="3">
-        <v>300</v>
       </c>
       <c r="I32" s="3">
         <v>300</v>
@@ -1870,14 +1939,14 @@
         <v>300</v>
       </c>
       <c r="K32" s="3">
+        <v>300</v>
+      </c>
+      <c r="L32" s="3">
         <v>200</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="M32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N32" s="3" t="s">
         <v>3</v>
       </c>
@@ -1893,41 +1962,44 @@
       <c r="R32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E33" s="3">
         <v>1000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-7900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-10000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-45300</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-7500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-5800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-16600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-15500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-7100</v>
       </c>
-      <c r="M33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1943,8 +2015,11 @@
       <c r="R33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1993,41 +2068,44 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E35" s="3">
         <v>1000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-7900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-10000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-45300</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-7500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-5800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-16600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-15500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-7100</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2043,46 +2121,49 @@
       <c r="R35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
         <v>44834</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2098,8 +2179,11 @@
       <c r="R38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2118,8 +2202,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2138,41 +2223,42 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>90400</v>
+      </c>
+      <c r="E41" s="3">
         <v>64300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>75900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>85700</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>14400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>122700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>128400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>134700</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>14600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>8300</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2188,38 +2274,41 @@
       <c r="R41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>42500</v>
+      </c>
+      <c r="E42" s="3">
         <v>28400</v>
       </c>
-      <c r="E42" s="3">
+      <c r="F42" s="3">
         <v>34800</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>38400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>118800</v>
       </c>
-      <c r="H42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K42" s="3">
+      <c r="K42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="3">
         <v>1200</v>
       </c>
-      <c r="L42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2238,41 +2327,44 @@
       <c r="R42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>3300</v>
+      </c>
+      <c r="E43" s="3">
         <v>53000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>900</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>700</v>
       </c>
-      <c r="H43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3">
         <v>1500</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>200</v>
       </c>
-      <c r="M43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,8 +2380,11 @@
       <c r="R43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2338,41 +2433,44 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E45" s="3">
         <v>1900</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>1200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>1600</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>2600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>5300</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>4800</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>1000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>900</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>100</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2388,41 +2486,44 @@
       <c r="R45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>140500</v>
+      </c>
+      <c r="E46" s="3">
         <v>147600</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>112800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>126700</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>136500</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>127900</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>133100</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>135800</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>18200</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>8600</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2438,8 +2539,11 @@
       <c r="R46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2488,41 +2592,44 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>2100</v>
+      </c>
+      <c r="E48" s="3">
         <v>2000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>1800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>1900</v>
       </c>
-      <c r="H48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3">
         <v>1500</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>1100</v>
       </c>
-      <c r="M48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2538,8 +2645,11 @@
       <c r="R48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2588,8 +2698,11 @@
       <c r="R49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2638,8 +2751,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2688,40 +2804,43 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>800</v>
+      </c>
+      <c r="E52" s="3">
         <v>300</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>700</v>
-      </c>
-      <c r="F52" s="3">
-        <v>800</v>
       </c>
       <c r="G52" s="3">
         <v>800</v>
       </c>
       <c r="H52" s="3">
+        <v>800</v>
+      </c>
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1900</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>800</v>
       </c>
-      <c r="L52" s="3">
-        <v>0</v>
-      </c>
-      <c r="M52" s="3" t="s">
-        <v>3</v>
+      <c r="M52" s="3">
+        <v>0</v>
       </c>
       <c r="N52" s="3" t="s">
         <v>3</v>
@@ -2738,8 +2857,11 @@
       <c r="R52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2788,41 +2910,44 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>143400</v>
+      </c>
+      <c r="E54" s="3">
         <v>149900</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>115300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>129500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>139200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>130200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>134900</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>137600</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>20500</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>9800</v>
       </c>
-      <c r="M54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2838,8 +2963,11 @@
       <c r="R54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2858,8 +2986,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2878,41 +3007,42 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E57" s="3">
         <v>7800</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>2900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>2700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>2600</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1800</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1500</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>900</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1300</v>
       </c>
-      <c r="M57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N57" s="3" t="s">
         <v>3</v>
       </c>
@@ -2928,13 +3058,16 @@
       <c r="R57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>300</v>
+        <v>5000</v>
       </c>
       <c r="E58" s="3">
         <v>300</v>
@@ -2945,8 +3078,8 @@
       <c r="G58" s="3">
         <v>300</v>
       </c>
-      <c r="H58" s="3" t="s">
-        <v>3</v>
+      <c r="H58" s="3">
+        <v>300</v>
       </c>
       <c r="I58" s="3" t="s">
         <v>3</v>
@@ -2954,15 +3087,15 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3">
         <v>200</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>100</v>
       </c>
-      <c r="M58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N58" s="3" t="s">
         <v>3</v>
       </c>
@@ -2978,41 +3111,44 @@
       <c r="R58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E59" s="3">
         <v>9800</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>13500</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13300</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>8400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>2500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>1600</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>3100</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>6200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>4600</v>
       </c>
-      <c r="M59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3028,41 +3164,44 @@
       <c r="R59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E60" s="3">
         <v>17900</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>16700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>16300</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>11200</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>4200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>3400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>4600</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>7300</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>6000</v>
       </c>
-      <c r="M60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3078,41 +3217,44 @@
       <c r="R60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>400</v>
+      </c>
+      <c r="E61" s="3">
         <v>4400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>4500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>4800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4600</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4100</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>3600</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>3400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>3900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2200</v>
       </c>
-      <c r="M61" s="3">
-        <v>0</v>
-      </c>
       <c r="N61" s="3">
         <v>0</v>
       </c>
@@ -3128,8 +3270,11 @@
       <c r="R61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3137,32 +3282,32 @@
         <v>35000</v>
       </c>
       <c r="E62" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="F62" s="3">
         <v>0</v>
       </c>
       <c r="G62" s="3">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>5000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>11200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>12300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>16200</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>1700</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>3300</v>
       </c>
-      <c r="M62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3178,8 +3323,11 @@
       <c r="R62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3228,8 +3376,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3278,8 +3429,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3328,41 +3482,44 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>57400</v>
+      </c>
+      <c r="E66" s="3">
         <v>57200</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>21300</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>21100</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>20900</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>19400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>19300</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>24200</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>12900</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>11500</v>
       </c>
-      <c r="M66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3378,8 +3535,11 @@
       <c r="R66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3398,8 +3558,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3448,8 +3609,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3498,8 +3662,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3548,8 +3715,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3598,41 +3768,44 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-85000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-86800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-81800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-73500</v>
       </c>
-      <c r="H72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="I72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3">
         <v>-32500</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-18800</v>
       </c>
-      <c r="M72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3648,8 +3821,11 @@
       <c r="R72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3698,8 +3874,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3748,8 +3927,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3798,41 +3980,44 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>86000</v>
+      </c>
+      <c r="E76" s="3">
         <v>92700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>94000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>108400</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>118400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>110800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>115600</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>113500</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>7600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>-1700</v>
       </c>
-      <c r="M76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N76" s="3" t="s">
         <v>3</v>
       </c>
@@ -3848,8 +4033,11 @@
       <c r="R76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3898,46 +4086,49 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
         <v>44834</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="N80" s="2" t="s">
         <v>3</v>
       </c>
@@ -3953,41 +4144,44 @@
       <c r="R80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="E81" s="3">
         <v>1000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-7900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-10000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-45300</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-7500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-5800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-16600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-15500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-7100</v>
       </c>
-      <c r="M81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="N81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4003,8 +4197,11 @@
       <c r="R81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4023,13 +4220,14 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="E83" s="3">
         <v>200</v>
@@ -4037,8 +4235,8 @@
       <c r="F83" s="3">
         <v>200</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
+      <c r="G83" s="3">
+        <v>200</v>
       </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
@@ -4052,8 +4250,8 @@
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L83" s="3">
-        <v>0</v>
+      <c r="L83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M83" s="3">
         <v>0</v>
@@ -4067,14 +4265,17 @@
       <c r="P83" s="3">
         <v>0</v>
       </c>
-      <c r="Q83" s="3" t="s">
-        <v>3</v>
+      <c r="Q83" s="3">
+        <v>0</v>
       </c>
       <c r="R83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4123,8 +4324,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4173,8 +4377,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4223,8 +4430,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4273,8 +4483,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4323,23 +4536,26 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>35700</v>
+      </c>
+      <c r="E89" s="3">
         <v>-14300</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-9700</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>-7600</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4352,8 +4568,8 @@
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L89" s="3">
-        <v>0</v>
+      <c r="L89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M89" s="3">
         <v>0</v>
@@ -4367,14 +4583,17 @@
       <c r="P89" s="3">
         <v>0</v>
       </c>
-      <c r="Q89" s="3" t="s">
-        <v>3</v>
+      <c r="Q89" s="3">
+        <v>0</v>
       </c>
       <c r="R89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4393,37 +4612,38 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
-        <v>0</v>
+        <v>-300</v>
       </c>
       <c r="E91" s="3">
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>-300</v>
-      </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J91" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G91" s="3">
+        <v>0</v>
+      </c>
+      <c r="H91" s="3">
+        <v>0</v>
+      </c>
+      <c r="I91" s="3">
+        <v>0</v>
+      </c>
+      <c r="J91" s="3">
+        <v>0</v>
       </c>
       <c r="K91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L91" s="3">
-        <v>0</v>
+      <c r="L91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M91" s="3">
         <v>0</v>
@@ -4437,14 +4657,17 @@
       <c r="P91" s="3">
         <v>0</v>
       </c>
-      <c r="Q91" s="3" t="s">
-        <v>3</v>
+      <c r="Q91" s="3">
+        <v>0</v>
       </c>
       <c r="R91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4493,8 +4716,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4543,23 +4769,26 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-4100</v>
+      </c>
+      <c r="E94" s="3">
         <v>6600</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>3500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>3400</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4572,8 +4801,8 @@
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L94" s="3">
-        <v>0</v>
+      <c r="L94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M94" s="3">
         <v>0</v>
@@ -4587,14 +4816,17 @@
       <c r="P94" s="3">
         <v>0</v>
       </c>
-      <c r="Q94" s="3" t="s">
-        <v>3</v>
+      <c r="Q94" s="3">
+        <v>0</v>
       </c>
       <c r="R94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4613,8 +4845,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4663,8 +4896,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4713,8 +4949,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4763,8 +5002,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4813,8 +5055,11 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -4825,11 +5070,11 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
+        <v>0</v>
+      </c>
+      <c r="G100" s="3">
         <v>300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -4842,8 +5087,8 @@
       <c r="K100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L100" s="3">
-        <v>0</v>
+      <c r="L100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M100" s="3">
         <v>0</v>
@@ -4857,29 +5102,32 @@
       <c r="P100" s="3">
         <v>0</v>
       </c>
-      <c r="Q100" s="3" t="s">
-        <v>3</v>
+      <c r="Q100" s="3">
+        <v>0</v>
       </c>
       <c r="R100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-3800</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-3700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1200</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -4892,8 +5140,8 @@
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L101" s="3">
-        <v>0</v>
+      <c r="L101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M101" s="3">
         <v>0</v>
@@ -4907,29 +5155,32 @@
       <c r="P101" s="3">
         <v>0</v>
       </c>
-      <c r="Q101" s="3" t="s">
-        <v>3</v>
+      <c r="Q101" s="3">
+        <v>0</v>
       </c>
       <c r="R101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>36000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-11500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-9900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-5100</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -4942,8 +5193,8 @@
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L102" s="3">
-        <v>0</v>
+      <c r="L102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="M102" s="3">
         <v>0</v>
@@ -4957,10 +5208,13 @@
       <c r="P102" s="3">
         <v>0</v>
       </c>
-      <c r="Q102" s="3" t="s">
-        <v>3</v>
+      <c r="Q102" s="3">
+        <v>0</v>
       </c>
       <c r="R102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="S102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="403" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,68 +665,70 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="19" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="N7" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P7" s="2" t="s">
         <v>3</v>
       </c>
@@ -739,47 +741,53 @@
       <c r="S7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1200</v>
+      </c>
+      <c r="F8" s="3">
         <v>2600</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>15300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>500</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>5000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>3500</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>600</v>
       </c>
-      <c r="N8" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P8" s="3" t="s">
         <v>3</v>
       </c>
@@ -792,16 +800,22 @@
       <c r="S8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D9" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>3</v>
+      <c r="D9" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E9" s="3">
+        <v>900</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>3</v>
@@ -845,16 +859,22 @@
       <c r="S9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>3</v>
+      <c r="D10" s="3">
+        <v>2700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>300</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>3</v>
@@ -898,8 +918,14 @@
       <c r="S10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -919,47 +945,49 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>12600</v>
+      </c>
+      <c r="E12" s="3">
+        <v>9900</v>
+      </c>
+      <c r="F12" s="3">
         <v>10500</v>
       </c>
-      <c r="E12" s="3">
+      <c r="G12" s="3">
         <v>13700</v>
       </c>
-      <c r="F12" s="3">
-        <v>8300</v>
-      </c>
-      <c r="G12" s="3">
-        <v>7600</v>
-      </c>
       <c r="H12" s="3">
+        <v>8400</v>
+      </c>
+      <c r="I12" s="3">
+        <v>7500</v>
+      </c>
+      <c r="J12" s="3">
         <v>37200</v>
       </c>
-      <c r="I12" s="3">
+      <c r="K12" s="3">
         <v>5700</v>
       </c>
-      <c r="J12" s="3">
+      <c r="L12" s="3">
         <v>4500</v>
       </c>
-      <c r="K12" s="3">
+      <c r="M12" s="3">
         <v>15700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="N12" s="3">
         <v>15700</v>
       </c>
-      <c r="M12" s="3">
+      <c r="O12" s="3">
         <v>6000</v>
       </c>
-      <c r="N12" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P12" s="3" t="s">
         <v>3</v>
       </c>
@@ -972,8 +1000,14 @@
       <c r="S12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1025,8 +1059,14 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1078,8 +1118,14 @@
       <c r="S14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T14" s="3">
+        <v>0</v>
+      </c>
+      <c r="U14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1131,8 +1177,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1149,47 +1201,49 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>18700</v>
+      </c>
+      <c r="E17" s="3">
+        <v>14800</v>
+      </c>
+      <c r="F17" s="3">
         <v>14200</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>16800</v>
       </c>
-      <c r="F17" s="3">
-        <v>11400</v>
-      </c>
-      <c r="G17" s="3">
-        <v>11900</v>
-      </c>
       <c r="H17" s="3">
+        <v>11500</v>
+      </c>
+      <c r="I17" s="3">
+        <v>11700</v>
+      </c>
+      <c r="J17" s="3">
         <v>49400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>8900</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>6400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>17200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>18400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>7400</v>
       </c>
-      <c r="N17" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1202,47 +1256,53 @@
       <c r="S17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F18" s="3">
         <v>-11600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>-1500</v>
       </c>
-      <c r="F18" s="3">
-        <v>-10900</v>
-      </c>
-      <c r="G18" s="3">
-        <v>-10900</v>
-      </c>
       <c r="H18" s="3">
+        <v>-11000</v>
+      </c>
+      <c r="I18" s="3">
+        <v>-10700</v>
+      </c>
+      <c r="J18" s="3">
         <v>-44400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>-7100</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-5500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-16300</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-14900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-6800</v>
       </c>
-      <c r="N18" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1255,8 +1315,14 @@
       <c r="S18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1276,46 +1342,48 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="F20" s="3">
         <v>-3300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>2500</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>3100</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>1100</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-800</v>
-      </c>
-      <c r="I20" s="3">
-        <v>-300</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-300</v>
       </c>
       <c r="K20" s="3">
         <v>-300</v>
       </c>
       <c r="L20" s="3">
-        <v>-200</v>
+        <v>-300</v>
       </c>
       <c r="M20" s="3">
         <v>-300</v>
       </c>
-      <c r="N20" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O20" s="3" t="s">
-        <v>3</v>
+      <c r="N20" s="3">
+        <v>-200</v>
+      </c>
+      <c r="O20" s="3">
+        <v>-300</v>
       </c>
       <c r="P20" s="3" t="s">
         <v>3</v>
@@ -1329,28 +1397,34 @@
       <c r="S20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="F21" s="3">
         <v>-14700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>1200</v>
       </c>
-      <c r="F21" s="3">
-        <v>-7600</v>
-      </c>
-      <c r="G21" s="3">
-        <v>-9600</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I21" s="3" t="s">
-        <v>3</v>
+      <c r="H21" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I21" s="3">
+        <v>-9400</v>
       </c>
       <c r="J21" s="3" t="s">
         <v>3</v>
@@ -1358,18 +1432,18 @@
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N21" s="3">
         <v>-14700</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-7000</v>
       </c>
-      <c r="N21" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1382,8 +1456,14 @@
       <c r="S21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1393,36 +1473,36 @@
       <c r="E22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="H22" s="3">
         <v>100</v>
       </c>
-      <c r="G22" s="3">
+      <c r="I22" s="3">
         <v>200</v>
       </c>
-      <c r="H22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J22" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L22" s="3">
+      <c r="L22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22" s="3">
         <v>300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>100</v>
       </c>
-      <c r="N22" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1435,47 +1515,53 @@
       <c r="S22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F23" s="3">
         <v>-14900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>1000</v>
       </c>
-      <c r="F23" s="3">
-        <v>-7800</v>
-      </c>
-      <c r="G23" s="3">
-        <v>-9900</v>
-      </c>
       <c r="H23" s="3">
+        <v>-8000</v>
+      </c>
+      <c r="I23" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J23" s="3">
         <v>-45200</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-7400</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-5800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-16600</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-15500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-7100</v>
       </c>
-      <c r="N23" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1488,8 +1574,14 @@
       <c r="S23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1497,23 +1589,23 @@
         <v>100</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="F24" s="3">
         <v>100</v>
       </c>
       <c r="G24" s="3">
+        <v>0</v>
+      </c>
+      <c r="H24" s="3">
         <v>100</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
+        <v>100</v>
+      </c>
+      <c r="J24" s="3">
         <v>200</v>
       </c>
-      <c r="I24" s="3">
-        <v>0</v>
-      </c>
-      <c r="J24" s="3">
-        <v>0</v>
-      </c>
       <c r="K24" s="3">
         <v>0</v>
       </c>
@@ -1523,11 +1615,11 @@
       <c r="M24" s="3">
         <v>0</v>
       </c>
-      <c r="N24" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O24" s="3" t="s">
-        <v>3</v>
+      <c r="N24" s="3">
+        <v>0</v>
+      </c>
+      <c r="O24" s="3">
+        <v>0</v>
       </c>
       <c r="P24" s="3" t="s">
         <v>3</v>
@@ -1541,8 +1633,14 @@
       <c r="S24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1594,47 +1692,53 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F26" s="3">
         <v>-15000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>1000</v>
       </c>
-      <c r="F26" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G26" s="3">
-        <v>-10000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I26" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J26" s="3">
         <v>-45300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-7500</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-5800</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-16600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-15500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-7100</v>
       </c>
-      <c r="N26" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1647,47 +1751,53 @@
       <c r="S26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F27" s="3">
         <v>-15000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>1000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G27" s="3">
-        <v>-10000</v>
-      </c>
       <c r="H27" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I27" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J27" s="3">
         <v>-45300</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-7500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-5800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-16600</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-15500</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-7100</v>
       </c>
-      <c r="N27" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1700,8 +1810,14 @@
       <c r="S27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1753,8 +1869,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1806,8 +1928,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1859,8 +1987,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1912,46 +2046,52 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>300</v>
+      </c>
+      <c r="F32" s="3">
         <v>3300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-2500</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>-3100</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>-1100</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>800</v>
-      </c>
-      <c r="I32" s="3">
-        <v>300</v>
-      </c>
-      <c r="J32" s="3">
-        <v>300</v>
       </c>
       <c r="K32" s="3">
         <v>300</v>
       </c>
       <c r="L32" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="M32" s="3">
         <v>300</v>
       </c>
-      <c r="N32" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O32" s="3" t="s">
-        <v>3</v>
+      <c r="N32" s="3">
+        <v>200</v>
+      </c>
+      <c r="O32" s="3">
+        <v>300</v>
       </c>
       <c r="P32" s="3" t="s">
         <v>3</v>
@@ -1965,47 +2105,53 @@
       <c r="S32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F33" s="3">
         <v>-15000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>1000</v>
       </c>
-      <c r="F33" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G33" s="3">
-        <v>-10000</v>
-      </c>
       <c r="H33" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I33" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J33" s="3">
         <v>-45300</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-7500</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-5800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-16600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-15500</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-7100</v>
       </c>
-      <c r="N33" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2018,8 +2164,14 @@
       <c r="S33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2071,47 +2223,53 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F35" s="3">
         <v>-15000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>1000</v>
       </c>
-      <c r="F35" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G35" s="3">
-        <v>-10000</v>
-      </c>
       <c r="H35" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I35" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J35" s="3">
         <v>-45300</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-7500</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-5800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-16600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-15500</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-7100</v>
       </c>
-      <c r="N35" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2124,52 +2282,58 @@
       <c r="S35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="N38" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2182,8 +2346,14 @@
       <c r="S38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2203,8 +2373,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2224,47 +2396,49 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>87600</v>
+      </c>
+      <c r="E41" s="3">
+        <v>100600</v>
+      </c>
+      <c r="F41" s="3">
         <v>90400</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>64300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>75900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>85700</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>14400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>122700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>128400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>134700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>14600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>8300</v>
       </c>
-      <c r="N41" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2277,44 +2451,50 @@
       <c r="S41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
+        <v>24800</v>
+      </c>
+      <c r="E42" s="3">
+        <v>24800</v>
+      </c>
+      <c r="F42" s="3">
         <v>42500</v>
       </c>
-      <c r="E42" s="3">
+      <c r="G42" s="3">
         <v>28400</v>
       </c>
-      <c r="F42" s="3">
+      <c r="H42" s="3">
         <v>34800</v>
       </c>
-      <c r="G42" s="3">
+      <c r="I42" s="3">
         <v>38400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="J42" s="3">
         <v>118800</v>
       </c>
-      <c r="I42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L42" s="3">
+      <c r="L42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N42" s="3">
         <v>1200</v>
       </c>
-      <c r="M42" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="O42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2330,47 +2510,53 @@
       <c r="S42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E43" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F43" s="3">
         <v>3300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>53000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>900</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>700</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L43" s="3">
+      <c r="L43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N43" s="3">
         <v>1500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>200</v>
       </c>
-      <c r="N43" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2383,8 +2569,14 @@
       <c r="S43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2436,47 +2628,53 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1700</v>
+      </c>
+      <c r="E45" s="3">
+        <v>3200</v>
+      </c>
+      <c r="F45" s="3">
         <v>4400</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>1900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>1200</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>1600</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>2600</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>5300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>4800</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>1000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>900</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>100</v>
       </c>
-      <c r="N45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2489,47 +2687,53 @@
       <c r="S45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>118500</v>
+      </c>
+      <c r="E46" s="3">
+        <v>130600</v>
+      </c>
+      <c r="F46" s="3">
         <v>140500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>147600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>112800</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>126700</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>136500</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>127900</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>133100</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>135800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>18200</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>8600</v>
       </c>
-      <c r="N46" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2542,8 +2746,14 @@
       <c r="S46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2595,47 +2805,53 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="F48" s="3">
         <v>2100</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>2000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>1800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>2100</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>1900</v>
       </c>
-      <c r="I48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L48" s="3">
+      <c r="L48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N48" s="3">
         <v>1500</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>1100</v>
       </c>
-      <c r="N48" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2648,8 +2864,14 @@
       <c r="S48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2701,8 +2923,14 @@
       <c r="S49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T49" s="3">
+        <v>0</v>
+      </c>
+      <c r="U49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2754,8 +2982,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2807,46 +3041,52 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>300</v>
+      </c>
+      <c r="E52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>300</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>800</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>1900</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>800</v>
       </c>
-      <c r="M52" s="3">
-        <v>0</v>
-      </c>
-      <c r="N52" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O52" s="3" t="s">
-        <v>3</v>
+      <c r="O52" s="3">
+        <v>0</v>
       </c>
       <c r="P52" s="3" t="s">
         <v>3</v>
@@ -2860,8 +3100,14 @@
       <c r="S52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2913,47 +3159,53 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>122500</v>
+      </c>
+      <c r="E54" s="3">
+        <v>135300</v>
+      </c>
+      <c r="F54" s="3">
         <v>143400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>149900</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>115300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>129500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>139200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>130200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>134900</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>137600</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>20500</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>9800</v>
       </c>
-      <c r="N54" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P54" s="3" t="s">
         <v>3</v>
       </c>
@@ -2966,8 +3218,14 @@
       <c r="S54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2987,8 +3245,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3008,47 +3268,49 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>5100</v>
+      </c>
+      <c r="E57" s="3">
+        <v>3100</v>
+      </c>
+      <c r="F57" s="3">
         <v>4000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>7800</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>2900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>2700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>2600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>1600</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1800</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1500</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>1300</v>
       </c>
-      <c r="N57" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3061,19 +3323,25 @@
       <c r="S57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="E58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="F58" s="3">
         <v>5000</v>
-      </c>
-      <c r="E58" s="3">
-        <v>300</v>
-      </c>
-      <c r="F58" s="3">
-        <v>300</v>
       </c>
       <c r="G58" s="3">
         <v>300</v>
@@ -3081,27 +3349,27 @@
       <c r="H58" s="3">
         <v>300</v>
       </c>
-      <c r="I58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J58" s="3" t="s">
-        <v>3</v>
+      <c r="I58" s="3">
+        <v>300</v>
+      </c>
+      <c r="J58" s="3">
+        <v>300</v>
       </c>
       <c r="K58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L58" s="3">
+      <c r="L58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N58" s="3">
         <v>200</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>100</v>
       </c>
-      <c r="N58" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3114,47 +3382,53 @@
       <c r="S58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>11600</v>
+      </c>
+      <c r="E59" s="3">
+        <v>14900</v>
+      </c>
+      <c r="F59" s="3">
         <v>13000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>9800</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>13500</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>13300</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>8400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>2500</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>1600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>3100</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>6200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>4600</v>
       </c>
-      <c r="N59" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3167,47 +3441,53 @@
       <c r="S59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>22300</v>
+      </c>
+      <c r="E60" s="3">
+        <v>23600</v>
+      </c>
+      <c r="F60" s="3">
         <v>22000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>17900</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>16700</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>16300</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>11200</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>4200</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>3400</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>4600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>7300</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>6000</v>
       </c>
-      <c r="N60" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3220,47 +3500,53 @@
       <c r="S60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1400</v>
+      </c>
+      <c r="F61" s="3">
         <v>400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>4400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>4500</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>4800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>4600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>4100</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>3600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>3400</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>3900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>2200</v>
       </c>
-      <c r="N61" s="3">
-        <v>0</v>
-      </c>
-      <c r="O61" s="3">
-        <v>0</v>
-      </c>
       <c r="P61" s="3">
         <v>0</v>
       </c>
@@ -3273,8 +3559,14 @@
       <c r="S61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T61" s="3">
+        <v>0</v>
+      </c>
+      <c r="U61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3285,35 +3577,35 @@
         <v>35000</v>
       </c>
       <c r="F62" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="G62" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="H62" s="3">
+        <v>0</v>
+      </c>
+      <c r="I62" s="3">
+        <v>0</v>
+      </c>
+      <c r="J62" s="3">
         <v>5000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>11200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>12300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>16200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>1700</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>3300</v>
       </c>
-      <c r="N62" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3326,8 +3618,14 @@
       <c r="S62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3379,8 +3677,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3432,8 +3736,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3485,47 +3795,53 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>58600</v>
+      </c>
+      <c r="E66" s="3">
+        <v>60000</v>
+      </c>
+      <c r="F66" s="3">
         <v>57400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>57200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>21300</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>21100</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>20900</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>19400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>19300</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>24200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>12900</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>11500</v>
       </c>
-      <c r="N66" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3538,8 +3854,14 @@
       <c r="S66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3559,8 +3881,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3612,8 +3936,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3665,8 +3995,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3718,8 +4054,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3771,47 +4113,53 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-122600</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-111400</v>
+      </c>
+      <c r="F72" s="3">
         <v>-99100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-85000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-86800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-81800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-73500</v>
       </c>
-      <c r="I72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="L72" s="3">
+      <c r="L72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="M72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N72" s="3">
         <v>-32500</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-18800</v>
       </c>
-      <c r="N72" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P72" s="3" t="s">
         <v>3</v>
       </c>
@@ -3824,8 +4172,14 @@
       <c r="S72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3877,8 +4231,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3930,8 +4290,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3983,47 +4349,53 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>63900</v>
+      </c>
+      <c r="E76" s="3">
+        <v>75300</v>
+      </c>
+      <c r="F76" s="3">
         <v>86000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>92700</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>94000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>108400</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>118400</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>110800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>115600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>113500</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>7600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>-1700</v>
       </c>
-      <c r="N76" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4036,8 +4408,14 @@
       <c r="S76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4089,52 +4467,58 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="N80" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="O80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="P80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4147,47 +4531,53 @@
       <c r="S80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="U80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-12700</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="F81" s="3">
         <v>-15000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>1000</v>
       </c>
-      <c r="F81" s="3">
-        <v>-7900</v>
-      </c>
-      <c r="G81" s="3">
-        <v>-10000</v>
-      </c>
       <c r="H81" s="3">
+        <v>-8100</v>
+      </c>
+      <c r="I81" s="3">
+        <v>-9800</v>
+      </c>
+      <c r="J81" s="3">
         <v>-45300</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-7500</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-5800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-16600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-15500</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-7100</v>
       </c>
-      <c r="N81" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="O81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4200,8 +4590,14 @@
       <c r="S81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4221,8 +4617,10 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4230,19 +4628,19 @@
         <v>300</v>
       </c>
       <c r="E83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="F83" s="3">
-        <v>200</v>
+        <v>300</v>
       </c>
       <c r="G83" s="3">
         <v>200</v>
       </c>
-      <c r="H83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I83" s="3" t="s">
-        <v>3</v>
+      <c r="H83" s="3">
+        <v>200</v>
+      </c>
+      <c r="I83" s="3">
+        <v>200</v>
       </c>
       <c r="J83" s="3" t="s">
         <v>3</v>
@@ -4253,11 +4651,11 @@
       <c r="L83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M83" s="3">
-        <v>0</v>
-      </c>
-      <c r="N83" s="3">
-        <v>0</v>
+      <c r="M83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O83" s="3">
         <v>0</v>
@@ -4268,14 +4666,20 @@
       <c r="Q83" s="3">
         <v>0</v>
       </c>
-      <c r="R83" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S83" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R83" s="3">
+        <v>0</v>
+      </c>
+      <c r="S83" s="3">
+        <v>0</v>
+      </c>
+      <c r="T83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4327,8 +4731,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4380,8 +4790,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4433,8 +4849,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4486,8 +4908,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4539,29 +4967,35 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-13100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>-8300</v>
+      </c>
+      <c r="F89" s="3">
         <v>35700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-14300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-9700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>-7600</v>
       </c>
-      <c r="H89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
@@ -4571,11 +5005,11 @@
       <c r="L89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M89" s="3">
-        <v>0</v>
-      </c>
-      <c r="N89" s="3">
-        <v>0</v>
+      <c r="M89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O89" s="3">
         <v>0</v>
@@ -4586,14 +5020,20 @@
       <c r="Q89" s="3">
         <v>0</v>
       </c>
-      <c r="R89" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S89" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R89" s="3">
+        <v>0</v>
+      </c>
+      <c r="S89" s="3">
+        <v>0</v>
+      </c>
+      <c r="T89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4613,20 +5053,22 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-200</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-500</v>
+      </c>
+      <c r="F91" s="3">
         <v>-300</v>
       </c>
-      <c r="E91" s="3">
-        <v>0</v>
-      </c>
-      <c r="F91" s="3">
-        <v>0</v>
-      </c>
       <c r="G91" s="3">
         <v>0</v>
       </c>
@@ -4639,17 +5081,17 @@
       <c r="J91" s="3">
         <v>0</v>
       </c>
-      <c r="K91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="M91" s="3">
-        <v>0</v>
-      </c>
-      <c r="N91" s="3">
-        <v>0</v>
+      <c r="K91" s="3">
+        <v>0</v>
+      </c>
+      <c r="L91" s="3">
+        <v>0</v>
+      </c>
+      <c r="M91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O91" s="3">
         <v>0</v>
@@ -4660,14 +5102,20 @@
       <c r="Q91" s="3">
         <v>0</v>
       </c>
-      <c r="R91" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S91" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R91" s="3">
+        <v>0</v>
+      </c>
+      <c r="S91" s="3">
+        <v>0</v>
+      </c>
+      <c r="T91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4719,8 +5167,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4772,29 +5226,35 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>200</v>
+      </c>
+      <c r="E94" s="3">
+        <v>7700</v>
+      </c>
+      <c r="F94" s="3">
         <v>-4100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>6600</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>3500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>3400</v>
       </c>
-      <c r="H94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
@@ -4804,11 +5264,11 @@
       <c r="L94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M94" s="3">
-        <v>0</v>
-      </c>
-      <c r="N94" s="3">
-        <v>0</v>
+      <c r="M94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O94" s="3">
         <v>0</v>
@@ -4819,14 +5279,20 @@
       <c r="Q94" s="3">
         <v>0</v>
       </c>
-      <c r="R94" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S94" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R94" s="3">
+        <v>0</v>
+      </c>
+      <c r="S94" s="3">
+        <v>0</v>
+      </c>
+      <c r="T94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4846,8 +5312,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4899,8 +5367,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4952,8 +5426,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5005,8 +5485,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5058,29 +5544,35 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
-        <v>0</v>
+        <v>-200</v>
       </c>
       <c r="E100" s="3">
-        <v>0</v>
+        <v>-100</v>
       </c>
       <c r="F100" s="3">
         <v>0</v>
       </c>
       <c r="G100" s="3">
+        <v>0</v>
+      </c>
+      <c r="H100" s="3">
+        <v>0</v>
+      </c>
+      <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="H100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
@@ -5090,11 +5582,11 @@
       <c r="L100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M100" s="3">
-        <v>0</v>
-      </c>
-      <c r="N100" s="3">
-        <v>0</v>
+      <c r="M100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O100" s="3">
         <v>0</v>
@@ -5105,35 +5597,41 @@
       <c r="Q100" s="3">
         <v>0</v>
       </c>
-      <c r="R100" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S100" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R100" s="3">
+        <v>0</v>
+      </c>
+      <c r="S100" s="3">
+        <v>0</v>
+      </c>
+      <c r="T100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>4400</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-3800</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-3700</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1200</v>
       </c>
-      <c r="H101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5143,11 +5641,11 @@
       <c r="L101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M101" s="3">
-        <v>0</v>
-      </c>
-      <c r="N101" s="3">
-        <v>0</v>
+      <c r="M101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O101" s="3">
         <v>0</v>
@@ -5158,35 +5656,41 @@
       <c r="Q101" s="3">
         <v>0</v>
       </c>
-      <c r="R101" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S101" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="R101" s="3">
+        <v>0</v>
+      </c>
+      <c r="S101" s="3">
+        <v>0</v>
+      </c>
+      <c r="T101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-13000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>300</v>
+      </c>
+      <c r="F102" s="3">
         <v>36000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-11500</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-9900</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-5100</v>
       </c>
-      <c r="H102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5196,11 +5700,11 @@
       <c r="L102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="M102" s="3">
-        <v>0</v>
-      </c>
-      <c r="N102" s="3">
-        <v>0</v>
+      <c r="M102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="O102" s="3">
         <v>0</v>
@@ -5211,10 +5715,16 @@
       <c r="Q102" s="3">
         <v>0</v>
       </c>
-      <c r="R102" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="S102" s="3" t="s">
+      <c r="R102" s="3">
+        <v>0</v>
+      </c>
+      <c r="S102" s="3">
+        <v>0</v>
+      </c>
+      <c r="T102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="U102" s="3" t="s">
         <v>3</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/LVTX_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="405" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="92">
   <si>
     <t>LVTX</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,73 +665,74 @@
     <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="21" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="22" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E7" s="2">
         <v>45107</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>45016</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44926</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44834</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44742</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44651</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44561</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44469</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44377</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44286</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44196</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q7" s="2" t="s">
         <v>3</v>
       </c>
@@ -747,50 +748,53 @@
       <c r="U7" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V7" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>100</v>
+      </c>
+      <c r="E8" s="3">
         <v>5100</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1200</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>2600</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>15300</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>5000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1800</v>
-      </c>
-      <c r="L8" s="3">
-        <v>900</v>
       </c>
       <c r="M8" s="3">
         <v>900</v>
       </c>
       <c r="N8" s="3">
+        <v>900</v>
+      </c>
+      <c r="O8" s="3">
         <v>3500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>600</v>
       </c>
-      <c r="P8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q8" s="3" t="s">
         <v>3</v>
       </c>
@@ -806,20 +810,23 @@
       <c r="U8" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V8" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
         <v>2400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>900</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G9" s="3" t="s">
         <v>3</v>
       </c>
@@ -865,20 +872,23 @@
       <c r="U9" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V9" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>100</v>
+      </c>
+      <c r="E10" s="3">
         <v>2700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>300</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="G10" s="3" t="s">
         <v>3</v>
       </c>
@@ -924,8 +934,11 @@
       <c r="U10" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V10" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -947,50 +960,51 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
       <c r="D12" s="3">
+        <v>7900</v>
+      </c>
+      <c r="E12" s="3">
         <v>12600</v>
       </c>
-      <c r="E12" s="3">
+      <c r="F12" s="3">
         <v>9900</v>
       </c>
-      <c r="F12" s="3">
+      <c r="G12" s="3">
         <v>10500</v>
       </c>
-      <c r="G12" s="3">
-        <v>13700</v>
-      </c>
       <c r="H12" s="3">
+        <v>27400</v>
+      </c>
+      <c r="I12" s="3">
         <v>8400</v>
       </c>
-      <c r="I12" s="3">
+      <c r="J12" s="3">
         <v>7500</v>
       </c>
-      <c r="J12" s="3">
+      <c r="K12" s="3">
         <v>37200</v>
       </c>
-      <c r="K12" s="3">
+      <c r="L12" s="3">
         <v>5700</v>
       </c>
-      <c r="L12" s="3">
+      <c r="M12" s="3">
         <v>4500</v>
-      </c>
-      <c r="M12" s="3">
-        <v>15700</v>
       </c>
       <c r="N12" s="3">
         <v>15700</v>
       </c>
       <c r="O12" s="3">
+        <v>15700</v>
+      </c>
+      <c r="P12" s="3">
         <v>6000</v>
       </c>
-      <c r="P12" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q12" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,8 +1020,11 @@
       <c r="U12" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1065,8 +1082,11 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1124,8 +1144,11 @@
       <c r="U14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1183,8 +1206,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1203,50 +1229,51 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E17" s="3">
         <v>18700</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>14800</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>14200</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>16800</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>11500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>11700</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>49400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>8900</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>6400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>17200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>18400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>7400</v>
       </c>
-      <c r="P17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q17" s="3" t="s">
         <v>3</v>
       </c>
@@ -1262,50 +1289,53 @@
       <c r="U17" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V17" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
-        <v>-13600</v>
+        <v>-10700</v>
       </c>
       <c r="E18" s="3">
         <v>-13600</v>
       </c>
       <c r="F18" s="3">
+        <v>-13600</v>
+      </c>
+      <c r="G18" s="3">
         <v>-11600</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-1500</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>-11000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-10700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44400</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-7100</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-5500</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-16300</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-14900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-6800</v>
       </c>
-      <c r="P18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1321,8 +1351,11 @@
       <c r="U18" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V18" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1344,34 +1377,35 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E20" s="3">
         <v>1000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-3300</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>2500</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>3100</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>1100</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-800</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-300</v>
       </c>
       <c r="L20" s="3">
         <v>-300</v>
@@ -1380,14 +1414,14 @@
         <v>-300</v>
       </c>
       <c r="N20" s="3">
+        <v>-300</v>
+      </c>
+      <c r="O20" s="3">
         <v>-200</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-300</v>
       </c>
-      <c r="P20" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q20" s="3" t="s">
         <v>3</v>
       </c>
@@ -1403,32 +1437,35 @@
       <c r="U20" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V20" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
-        <v>-12300</v>
+      <c r="D21" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E21" s="3">
-        <v>-13600</v>
+        <v>-12000</v>
       </c>
       <c r="F21" s="3">
+        <v>-14300</v>
+      </c>
+      <c r="G21" s="3">
         <v>-14700</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>1200</v>
       </c>
-      <c r="H21" s="3">
-        <v>-7800</v>
-      </c>
       <c r="I21" s="3">
+        <v>-7600</v>
+      </c>
+      <c r="J21" s="3">
         <v>-9400</v>
       </c>
-      <c r="J21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1438,15 +1475,15 @@
       <c r="M21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N21" s="3">
+      <c r="N21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O21" s="3">
         <v>-14700</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-7000</v>
       </c>
-      <c r="P21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1462,8 +1499,11 @@
       <c r="U21" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V21" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1479,15 +1519,15 @@
       <c r="G22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H22" s="3">
+      <c r="H22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I22" s="3">
         <v>100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>200</v>
       </c>
-      <c r="J22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1497,15 +1537,15 @@
       <c r="M22" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O22" s="3">
         <v>300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>100</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q22" s="3" t="s">
         <v>3</v>
       </c>
@@ -1521,50 +1561,53 @@
       <c r="U22" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-12600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-13900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-14900</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>1000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-8000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-9800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-45200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-7400</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-5800</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-16600</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-15500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-7100</v>
       </c>
-      <c r="P23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1580,8 +1623,11 @@
       <c r="U23" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1595,20 +1641,20 @@
         <v>100</v>
       </c>
       <c r="G24" s="3">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H24" s="3">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I24" s="3">
         <v>100</v>
       </c>
       <c r="J24" s="3">
+        <v>100</v>
+      </c>
+      <c r="K24" s="3">
         <v>200</v>
       </c>
-      <c r="K24" s="3">
-        <v>0</v>
-      </c>
       <c r="L24" s="3">
         <v>0</v>
       </c>
@@ -1621,8 +1667,8 @@
       <c r="O24" s="3">
         <v>0</v>
       </c>
-      <c r="P24" s="3" t="s">
-        <v>3</v>
+      <c r="P24" s="3">
+        <v>0</v>
       </c>
       <c r="Q24" s="3" t="s">
         <v>3</v>
@@ -1639,8 +1685,11 @@
       <c r="U24" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V24" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1698,50 +1747,53 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E26" s="3">
         <v>-12700</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-13900</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-15000</v>
       </c>
-      <c r="G26" s="3">
-        <v>1000</v>
-      </c>
       <c r="H26" s="3">
+        <v>900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-8100</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-9800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-45300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-7500</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-5800</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-16600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-15500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-7100</v>
       </c>
-      <c r="P26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1757,50 +1809,53 @@
       <c r="U26" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V26" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-13900</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-15000</v>
       </c>
-      <c r="G27" s="3">
-        <v>1000</v>
-      </c>
       <c r="H27" s="3">
+        <v>900</v>
+      </c>
+      <c r="I27" s="3">
         <v>-8100</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-9800</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-45300</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-7500</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-5800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16600</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-15500</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-7100</v>
       </c>
-      <c r="P27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1816,8 +1871,11 @@
       <c r="U27" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V27" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1875,8 +1933,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1934,8 +1995,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1993,8 +2057,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2052,34 +2119,37 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>3300</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>-2500</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>-3100</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-1100</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>800</v>
-      </c>
-      <c r="K32" s="3">
-        <v>300</v>
       </c>
       <c r="L32" s="3">
         <v>300</v>
@@ -2088,14 +2158,14 @@
         <v>300</v>
       </c>
       <c r="N32" s="3">
+        <v>300</v>
+      </c>
+      <c r="O32" s="3">
         <v>200</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>300</v>
       </c>
-      <c r="P32" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q32" s="3" t="s">
         <v>3</v>
       </c>
@@ -2111,50 +2181,53 @@
       <c r="U32" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V32" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E33" s="3">
         <v>-12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-13900</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-15000</v>
       </c>
-      <c r="G33" s="3">
-        <v>1000</v>
-      </c>
       <c r="H33" s="3">
+        <v>900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-8100</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-9800</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-45300</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-7500</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-5800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16600</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-15500</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-7100</v>
       </c>
-      <c r="P33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q33" s="3" t="s">
         <v>3</v>
       </c>
@@ -2170,8 +2243,11 @@
       <c r="U33" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V33" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2229,50 +2305,53 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E35" s="3">
         <v>-12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-13900</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-15000</v>
       </c>
-      <c r="G35" s="3">
-        <v>1000</v>
-      </c>
       <c r="H35" s="3">
+        <v>900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-8100</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-9800</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-45300</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-7500</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-5800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16600</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-15500</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-7100</v>
       </c>
-      <c r="P35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q35" s="3" t="s">
         <v>3</v>
       </c>
@@ -2288,55 +2367,58 @@
       <c r="U35" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V35" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E38" s="2">
         <v>45107</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>45016</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44926</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44834</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44742</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44651</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44561</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44469</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44377</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44286</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44196</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q38" s="2" t="s">
         <v>3</v>
       </c>
@@ -2352,8 +2434,11 @@
       <c r="U38" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V38" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2375,8 +2460,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2398,50 +2484,51 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>62700</v>
+      </c>
+      <c r="E41" s="3">
         <v>87600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>100600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>90400</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>64300</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>75900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>85700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>14400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>122700</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>128400</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>134700</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>14600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>8300</v>
       </c>
-      <c r="P41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q41" s="3" t="s">
         <v>3</v>
       </c>
@@ -2457,47 +2544,50 @@
       <c r="U41" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V41" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>24800</v>
+        <v>42000</v>
       </c>
       <c r="E42" s="3">
         <v>24800</v>
       </c>
       <c r="F42" s="3">
+        <v>24800</v>
+      </c>
+      <c r="G42" s="3">
         <v>42500</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>28400</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>34800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>38400</v>
       </c>
-      <c r="J42" s="3">
+      <c r="K42" s="3">
         <v>118800</v>
       </c>
-      <c r="K42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L42" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M42" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N42" s="3">
+      <c r="N42" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O42" s="3">
         <v>1200</v>
       </c>
-      <c r="O42" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="P42" s="3" t="s">
         <v>3</v>
       </c>
@@ -2516,50 +2606,53 @@
       <c r="U42" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E43" s="3">
         <v>4400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>2000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>3300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>53000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>800</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>700</v>
       </c>
-      <c r="K43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L43" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N43" s="3">
+      <c r="N43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O43" s="3">
         <v>1500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>200</v>
       </c>
-      <c r="P43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q43" s="3" t="s">
         <v>3</v>
       </c>
@@ -2575,8 +2668,11 @@
       <c r="U43" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V43" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2634,50 +2730,53 @@
       <c r="U44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>1900</v>
+      </c>
+      <c r="E45" s="3">
         <v>1700</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>4400</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>1900</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>1200</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>1600</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>2600</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>5300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>4800</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>1000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>900</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>100</v>
       </c>
-      <c r="P45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q45" s="3" t="s">
         <v>3</v>
       </c>
@@ -2693,50 +2792,53 @@
       <c r="U45" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V45" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>107900</v>
+      </c>
+      <c r="E46" s="3">
         <v>118500</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>130600</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>140500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>147600</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>112800</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>126700</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>136500</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>127900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>133100</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>135800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>18200</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>8600</v>
       </c>
-      <c r="P46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q46" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,8 +2854,11 @@
       <c r="U46" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V46" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2811,50 +2916,53 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
-        <v>3700</v>
+        <v>2800</v>
       </c>
       <c r="E48" s="3">
         <v>3700</v>
       </c>
       <c r="F48" s="3">
+        <v>3700</v>
+      </c>
+      <c r="G48" s="3">
         <v>2100</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>2000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>1800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>2100</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>1900</v>
       </c>
-      <c r="K48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L48" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N48" s="3">
+      <c r="N48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O48" s="3">
         <v>1500</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>1100</v>
       </c>
-      <c r="P48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q48" s="3" t="s">
         <v>3</v>
       </c>
@@ -2870,8 +2978,11 @@
       <c r="U48" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V48" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -2929,8 +3040,11 @@
       <c r="U49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2988,8 +3102,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3047,8 +3164,11 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -3056,40 +3176,40 @@
         <v>300</v>
       </c>
       <c r="E52" s="3">
+        <v>300</v>
+      </c>
+      <c r="F52" s="3">
         <v>1000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>800</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>700</v>
-      </c>
-      <c r="I52" s="3">
-        <v>800</v>
       </c>
       <c r="J52" s="3">
         <v>800</v>
       </c>
       <c r="K52" s="3">
+        <v>800</v>
+      </c>
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1900</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>800</v>
       </c>
-      <c r="O52" s="3">
-        <v>0</v>
-      </c>
-      <c r="P52" s="3" t="s">
-        <v>3</v>
+      <c r="P52" s="3">
+        <v>0</v>
       </c>
       <c r="Q52" s="3" t="s">
         <v>3</v>
@@ -3106,8 +3226,11 @@
       <c r="U52" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V52" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3165,50 +3288,53 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>111000</v>
+      </c>
+      <c r="E54" s="3">
         <v>122500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>135300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>143400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>149900</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>115300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>129500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>139200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>130200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>134900</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>137600</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>20500</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>9800</v>
       </c>
-      <c r="P54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q54" s="3" t="s">
         <v>3</v>
       </c>
@@ -3224,8 +3350,11 @@
       <c r="U54" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V54" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3247,8 +3376,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3270,50 +3400,51 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9400</v>
+      </c>
+      <c r="E57" s="3">
         <v>5100</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>3100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>4000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>7800</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>2900</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>2700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>2600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>1600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1800</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1500</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>1300</v>
       </c>
-      <c r="P57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q57" s="3" t="s">
         <v>3</v>
       </c>
@@ -3329,22 +3460,25 @@
       <c r="U57" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V57" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>5600</v>
+        <v>5500</v>
       </c>
       <c r="E58" s="3">
         <v>5600</v>
       </c>
       <c r="F58" s="3">
+        <v>5600</v>
+      </c>
+      <c r="G58" s="3">
         <v>5000</v>
-      </c>
-      <c r="G58" s="3">
-        <v>300</v>
       </c>
       <c r="H58" s="3">
         <v>300</v>
@@ -3355,8 +3489,8 @@
       <c r="J58" s="3">
         <v>300</v>
       </c>
-      <c r="K58" s="3" t="s">
-        <v>3</v>
+      <c r="K58" s="3">
+        <v>300</v>
       </c>
       <c r="L58" s="3" t="s">
         <v>3</v>
@@ -3364,15 +3498,15 @@
       <c r="M58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N58" s="3">
+      <c r="N58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O58" s="3">
         <v>200</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>100</v>
       </c>
-      <c r="P58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q58" s="3" t="s">
         <v>3</v>
       </c>
@@ -3388,50 +3522,53 @@
       <c r="U58" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5800</v>
+      </c>
+      <c r="E59" s="3">
         <v>11600</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>14900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>13000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>9800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>13500</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>13300</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>8400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2500</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>1600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>3100</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>6200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>4600</v>
       </c>
-      <c r="P59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q59" s="3" t="s">
         <v>3</v>
       </c>
@@ -3447,50 +3584,53 @@
       <c r="U59" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V59" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>20800</v>
+      </c>
+      <c r="E60" s="3">
         <v>22300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>23600</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>22000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>17900</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>16700</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>16300</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>11200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>4200</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>3400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>4600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>7300</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>6000</v>
       </c>
-      <c r="P60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q60" s="3" t="s">
         <v>3</v>
       </c>
@@ -3506,50 +3646,53 @@
       <c r="U60" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V60" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>700</v>
+      </c>
+      <c r="E61" s="3">
         <v>1300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>4400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>4500</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>4800</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>4600</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>4100</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>3600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>3400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>3900</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>2200</v>
       </c>
-      <c r="P61" s="3">
-        <v>0</v>
-      </c>
       <c r="Q61" s="3">
         <v>0</v>
       </c>
@@ -3565,8 +3708,11 @@
       <c r="U61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -3583,32 +3729,32 @@
         <v>35000</v>
       </c>
       <c r="H62" s="3">
-        <v>0</v>
+        <v>35000</v>
       </c>
       <c r="I62" s="3">
         <v>0</v>
       </c>
       <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="3">
         <v>5000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>11200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>12300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>16200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>1700</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>3300</v>
       </c>
-      <c r="P62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q62" s="3" t="s">
         <v>3</v>
       </c>
@@ -3624,8 +3770,11 @@
       <c r="U62" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V62" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3683,8 +3832,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3742,8 +3894,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3801,50 +3956,53 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>56400</v>
+      </c>
+      <c r="E66" s="3">
         <v>58600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>60000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>57400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>57200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>21300</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>21100</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>20900</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>19400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>19300</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>24200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>12900</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>11500</v>
       </c>
-      <c r="P66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q66" s="3" t="s">
         <v>3</v>
       </c>
@@ -3860,8 +4018,11 @@
       <c r="U66" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V66" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3883,8 +4044,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3942,8 +4104,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4001,8 +4166,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4060,8 +4228,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4119,50 +4290,53 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-130500</v>
+      </c>
+      <c r="E72" s="3">
         <v>-122600</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-111400</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-99100</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-85000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-86800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-81800</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-73500</v>
       </c>
-      <c r="K72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="L72" s="3" t="s">
         <v>3</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="N72" s="3">
+      <c r="N72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="O72" s="3">
         <v>-32500</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-18800</v>
       </c>
-      <c r="P72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q72" s="3" t="s">
         <v>3</v>
       </c>
@@ -4178,8 +4352,11 @@
       <c r="U72" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4237,8 +4414,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4296,8 +4476,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4355,50 +4538,53 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E76" s="3">
         <v>63900</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>75300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>86000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>92700</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>94000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>108400</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>118400</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>110800</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>115600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>113500</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>7600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>-1700</v>
       </c>
-      <c r="P76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q76" s="3" t="s">
         <v>3</v>
       </c>
@@ -4414,8 +4600,11 @@
       <c r="U76" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V76" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4473,55 +4662,58 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45199</v>
+      </c>
+      <c r="E80" s="2">
         <v>45107</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>45016</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44926</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44834</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44742</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44651</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44561</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44469</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44377</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44286</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44196</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="Q80" s="2" t="s">
         <v>3</v>
       </c>
@@ -4537,50 +4729,53 @@
       <c r="U80" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V80" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-8800</v>
+      </c>
+      <c r="E81" s="3">
         <v>-12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-13900</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-15000</v>
       </c>
-      <c r="G81" s="3">
-        <v>1000</v>
-      </c>
       <c r="H81" s="3">
+        <v>900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-8100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-9800</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-45300</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-7500</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-5800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16600</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-15500</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-7100</v>
       </c>
-      <c r="P81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="Q81" s="3" t="s">
         <v>3</v>
       </c>
@@ -4596,8 +4791,11 @@
       <c r="U81" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V81" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4619,32 +4817,33 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="D83" s="3">
+      <c r="D83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E83" s="3">
+        <v>600</v>
+      </c>
+      <c r="F83" s="3">
+        <v>-500</v>
+      </c>
+      <c r="G83" s="3">
         <v>300</v>
-      </c>
-      <c r="E83" s="3">
-        <v>300</v>
-      </c>
-      <c r="F83" s="3">
-        <v>300</v>
-      </c>
-      <c r="G83" s="3">
-        <v>200</v>
       </c>
       <c r="H83" s="3">
         <v>200</v>
       </c>
       <c r="I83" s="3">
+        <v>300</v>
+      </c>
+      <c r="J83" s="3">
         <v>200</v>
       </c>
-      <c r="J83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K83" s="3" t="s">
         <v>3</v>
       </c>
@@ -4657,8 +4856,8 @@
       <c r="N83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O83" s="3">
-        <v>0</v>
+      <c r="O83" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P83" s="3">
         <v>0</v>
@@ -4672,14 +4871,17 @@
       <c r="S83" s="3">
         <v>0</v>
       </c>
-      <c r="T83" s="3" t="s">
-        <v>3</v>
+      <c r="T83" s="3">
+        <v>0</v>
       </c>
       <c r="U83" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V83" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4737,8 +4939,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4796,8 +5001,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4855,8 +5063,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4914,8 +5125,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4973,32 +5187,35 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D89" s="3">
-        <v>-13100</v>
+      <c r="D89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E89" s="3">
-        <v>-8300</v>
+        <v>-21400</v>
       </c>
       <c r="F89" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="G89" s="3">
         <v>35700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-14300</v>
       </c>
-      <c r="H89" s="3">
-        <v>-9700</v>
-      </c>
       <c r="I89" s="3">
+        <v>-17300</v>
+      </c>
+      <c r="J89" s="3">
         <v>-7600</v>
       </c>
-      <c r="J89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K89" s="3" t="s">
         <v>3</v>
       </c>
@@ -5011,8 +5228,8 @@
       <c r="N89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O89" s="3">
-        <v>0</v>
+      <c r="O89" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P89" s="3">
         <v>0</v>
@@ -5026,14 +5243,17 @@
       <c r="S89" s="3">
         <v>0</v>
       </c>
-      <c r="T89" s="3" t="s">
-        <v>3</v>
+      <c r="T89" s="3">
+        <v>0</v>
       </c>
       <c r="U89" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V89" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5055,8 +5275,9 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -5087,14 +5308,14 @@
       <c r="L91" s="3">
         <v>0</v>
       </c>
-      <c r="M91" s="3" t="s">
-        <v>3</v>
+      <c r="M91" s="3">
+        <v>0</v>
       </c>
       <c r="N91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="3">
-        <v>0</v>
+      <c r="O91" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P91" s="3">
         <v>0</v>
@@ -5108,14 +5329,17 @@
       <c r="S91" s="3">
         <v>0</v>
       </c>
-      <c r="T91" s="3" t="s">
-        <v>3</v>
+      <c r="T91" s="3">
+        <v>0</v>
       </c>
       <c r="U91" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V91" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5173,8 +5397,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5232,32 +5459,35 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
-        <v>200</v>
+      <c r="D94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E94" s="3">
-        <v>7700</v>
+        <v>7900</v>
       </c>
       <c r="F94" s="3">
+        <v>-1700</v>
+      </c>
+      <c r="G94" s="3">
         <v>-4100</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>6600</v>
       </c>
-      <c r="H94" s="3">
-        <v>3500</v>
-      </c>
       <c r="I94" s="3">
+        <v>6900</v>
+      </c>
+      <c r="J94" s="3">
         <v>3400</v>
       </c>
-      <c r="J94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K94" s="3" t="s">
         <v>3</v>
       </c>
@@ -5270,8 +5500,8 @@
       <c r="N94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O94" s="3">
-        <v>0</v>
+      <c r="O94" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P94" s="3">
         <v>0</v>
@@ -5285,14 +5515,17 @@
       <c r="S94" s="3">
         <v>0</v>
       </c>
-      <c r="T94" s="3" t="s">
-        <v>3</v>
+      <c r="T94" s="3">
+        <v>0</v>
       </c>
       <c r="U94" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V94" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5314,8 +5547,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5373,8 +5607,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5432,8 +5669,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5491,8 +5731,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5550,19 +5793,22 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D100" s="3">
-        <v>-200</v>
+      <c r="D100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E100" s="3">
-        <v>-100</v>
+        <v>-300</v>
       </c>
       <c r="F100" s="3">
-        <v>0</v>
+        <v>-400</v>
       </c>
       <c r="G100" s="3">
         <v>0</v>
@@ -5573,8 +5819,8 @@
       <c r="I100" s="3">
         <v>300</v>
       </c>
-      <c r="J100" s="3" t="s">
-        <v>3</v>
+      <c r="J100" s="3">
+        <v>300</v>
       </c>
       <c r="K100" s="3" t="s">
         <v>3</v>
@@ -5588,8 +5834,8 @@
       <c r="N100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O100" s="3">
-        <v>0</v>
+      <c r="O100" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P100" s="3">
         <v>0</v>
@@ -5603,38 +5849,41 @@
       <c r="S100" s="3">
         <v>0</v>
       </c>
-      <c r="T100" s="3" t="s">
-        <v>3</v>
+      <c r="T100" s="3">
+        <v>0</v>
       </c>
       <c r="U100" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V100" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D101" s="3">
-        <v>0</v>
+      <c r="D101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E101" s="3">
         <v>1000</v>
       </c>
       <c r="F101" s="3">
+        <v>5200</v>
+      </c>
+      <c r="G101" s="3">
         <v>4400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-3800</v>
       </c>
-      <c r="H101" s="3">
-        <v>-3700</v>
-      </c>
       <c r="I101" s="3">
+        <v>-4900</v>
+      </c>
+      <c r="J101" s="3">
         <v>-1200</v>
       </c>
-      <c r="J101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K101" s="3" t="s">
         <v>3</v>
       </c>
@@ -5647,8 +5896,8 @@
       <c r="N101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O101" s="3">
-        <v>0</v>
+      <c r="O101" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P101" s="3">
         <v>0</v>
@@ -5662,38 +5911,41 @@
       <c r="S101" s="3">
         <v>0</v>
       </c>
-      <c r="T101" s="3" t="s">
-        <v>3</v>
+      <c r="T101" s="3">
+        <v>0</v>
       </c>
       <c r="U101" s="3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V101" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
-        <v>-13000</v>
+      <c r="D102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="E102" s="3">
-        <v>300</v>
+        <v>-12700</v>
       </c>
       <c r="F102" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="G102" s="3">
         <v>36000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-11500</v>
       </c>
-      <c r="H102" s="3">
-        <v>-9900</v>
-      </c>
       <c r="I102" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="J102" s="3">
         <v>-5100</v>
       </c>
-      <c r="J102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="K102" s="3" t="s">
         <v>3</v>
       </c>
@@ -5706,8 +5958,8 @@
       <c r="N102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="O102" s="3">
-        <v>0</v>
+      <c r="O102" s="3" t="s">
+        <v>3</v>
       </c>
       <c r="P102" s="3">
         <v>0</v>
@@ -5721,10 +5973,13 @@
       <c r="S102" s="3">
         <v>0</v>
       </c>
-      <c r="T102" s="3" t="s">
-        <v>3</v>
+      <c r="T102" s="3">
+        <v>0</v>
       </c>
       <c r="U102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="V102" s="3" t="s">
         <v>3</v>
       </c>
     </row>
